--- a/msmp_example/output/msmp_example_result_workbook.xlsx
+++ b/msmp_example/output/msmp_example_result_workbook.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -234,8 +234,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -272,7 +274,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,12 +561,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -585,13 +587,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>16672.9036079754</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="C2" t="n">
-        <v>1707.2989386175</v>
+        <v>1707.29893861751</v>
       </c>
       <c r="D2" t="n">
-        <v>9.76566155513244</v>
+        <v>9.76566155513079</v>
       </c>
     </row>
     <row r="3">
@@ -599,13 +601,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.38344703859756</v>
+        <v>0.383447038597558</v>
       </c>
       <c r="C3" t="n">
         <v>0.0186453786969359</v>
       </c>
       <c r="D3" t="n">
-        <v>20.565258814538</v>
+        <v>20.5652588145379</v>
       </c>
     </row>
     <row r="4">
@@ -613,13 +615,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>-52.3668484207657</v>
+        <v>-52.3668484207742</v>
       </c>
       <c r="C4" t="n">
-        <v>17.2187982812538</v>
+        <v>17.2187982812537</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.04126034612868</v>
+        <v>-3.04126034612919</v>
       </c>
     </row>
     <row r="5">
@@ -627,13 +629,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1.4789490392002</v>
+        <v>1.47894903920076</v>
       </c>
       <c r="C5" t="n">
-        <v>7.6349879721269</v>
+        <v>7.63498797212692</v>
       </c>
       <c r="D5" t="n">
-        <v>0.193706793592787</v>
+        <v>0.193706793592861</v>
       </c>
     </row>
     <row r="6">
@@ -641,13 +643,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>148.523387664102</v>
+        <v>148.523387664109</v>
       </c>
       <c r="C6" t="n">
         <v>146.090109876555</v>
       </c>
       <c r="D6" t="n">
-        <v>1.01665600627998</v>
+        <v>1.01665600628003</v>
       </c>
     </row>
     <row r="7">
@@ -655,13 +657,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>9.28050479643337</v>
+        <v>9.28050479641771</v>
       </c>
       <c r="C7" t="n">
         <v>111.210247320131</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0834500868406344</v>
+        <v>0.0834500868404936</v>
       </c>
     </row>
     <row r="8">
@@ -669,13 +671,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>108.12869143918</v>
+        <v>108.128691439122</v>
       </c>
       <c r="C8" t="n">
-        <v>409.001101095633</v>
+        <v>409.001101095631</v>
       </c>
       <c r="D8" t="n">
-        <v>0.26437261696735</v>
+        <v>0.264372616967209</v>
       </c>
     </row>
     <row r="9">
@@ -683,13 +685,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>-685.10965326382</v>
+        <v>-685.109653263298</v>
       </c>
       <c r="C9" t="n">
         <v>1072.74540097585</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.638650748481974</v>
+        <v>-0.638650748481488</v>
       </c>
     </row>
   </sheetData>
@@ -699,12 +701,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -728,10 +730,10 @@
         <v>9688.1</v>
       </c>
       <c r="C2" t="n">
-        <v>8945.43214841696</v>
+        <v>8945.43214841367</v>
       </c>
       <c r="D2" t="n">
-        <v>742.667851583041</v>
+        <v>742.667851586331</v>
       </c>
     </row>
     <row r="3">
@@ -742,10 +744,10 @@
         <v>9481.91</v>
       </c>
       <c r="C3" t="n">
-        <v>8828.5364791401</v>
+        <v>8828.5364791368</v>
       </c>
       <c r="D3" t="n">
-        <v>653.373520859897</v>
+        <v>653.373520863195</v>
       </c>
     </row>
     <row r="4">
@@ -756,10 +758,10 @@
         <v>9617.78</v>
       </c>
       <c r="C4" t="n">
-        <v>8976.28752777588</v>
+        <v>8976.28752777259</v>
       </c>
       <c r="D4" t="n">
-        <v>641.492472224116</v>
+        <v>641.49247222741</v>
       </c>
     </row>
     <row r="5">
@@ -770,10 +772,10 @@
         <v>9281.95</v>
       </c>
       <c r="C5" t="n">
-        <v>8902.12571571895</v>
+        <v>8902.12571571565</v>
       </c>
       <c r="D5" t="n">
-        <v>379.82428428105</v>
+        <v>379.82428428435</v>
       </c>
     </row>
     <row r="6">
@@ -784,10 +786,10 @@
         <v>9182.17</v>
       </c>
       <c r="C6" t="n">
-        <v>9088.66714282576</v>
+        <v>9088.6671428225</v>
       </c>
       <c r="D6" t="n">
-        <v>93.5028571742405</v>
+        <v>93.5028571775001</v>
       </c>
     </row>
     <row r="7">
@@ -798,10 +800,10 @@
         <v>8654.48</v>
       </c>
       <c r="C7" t="n">
-        <v>8714.47776767752</v>
+        <v>8714.47776767426</v>
       </c>
       <c r="D7" t="n">
-        <v>-59.9977676775179</v>
+        <v>-59.9977676742565</v>
       </c>
     </row>
     <row r="8">
@@ -812,10 +814,10 @@
         <v>8878.51</v>
       </c>
       <c r="C8" t="n">
-        <v>9045.12708663353</v>
+        <v>9045.12708663026</v>
       </c>
       <c r="D8" t="n">
-        <v>-166.617086633525</v>
+        <v>-166.617086630262</v>
       </c>
     </row>
     <row r="9">
@@ -826,10 +828,10 @@
         <v>9100.7</v>
       </c>
       <c r="C9" t="n">
-        <v>9057.57156055785</v>
+        <v>9057.57156055458</v>
       </c>
       <c r="D9" t="n">
-        <v>43.1284394421491</v>
+        <v>43.1284394454251</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +842,10 @@
         <v>9421.59</v>
       </c>
       <c r="C10" t="n">
-        <v>9279.38864183983</v>
+        <v>9279.38864183652</v>
       </c>
       <c r="D10" t="n">
-        <v>142.201358160166</v>
+        <v>142.201358163482</v>
       </c>
     </row>
     <row r="11">
@@ -854,10 +856,10 @@
         <v>10669.67</v>
       </c>
       <c r="C11" t="n">
-        <v>9691.48568734777</v>
+        <v>9691.48568734454</v>
       </c>
       <c r="D11" t="n">
-        <v>978.184312652229</v>
+        <v>978.184312655463</v>
       </c>
     </row>
     <row r="12">
@@ -868,10 +870,10 @@
         <v>10204</v>
       </c>
       <c r="C12" t="n">
-        <v>9448.63196282427</v>
+        <v>9448.63196282105</v>
       </c>
       <c r="D12" t="n">
-        <v>755.368037175725</v>
+        <v>755.368037178952</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +884,10 @@
         <v>13056.04</v>
       </c>
       <c r="C13" t="n">
-        <v>11288.246913321</v>
+        <v>11288.2469133178</v>
       </c>
       <c r="D13" t="n">
-        <v>1767.79308667896</v>
+        <v>1767.79308668219</v>
       </c>
     </row>
     <row r="14">
@@ -896,10 +898,10 @@
         <v>10180.06</v>
       </c>
       <c r="C14" t="n">
-        <v>11142.1162301261</v>
+        <v>11142.1162301229</v>
       </c>
       <c r="D14" t="n">
-        <v>-962.056230126107</v>
+        <v>-962.056230122875</v>
       </c>
     </row>
     <row r="15">
@@ -910,10 +912,10 @@
         <v>10578.11</v>
       </c>
       <c r="C15" t="n">
-        <v>10243.4418671992</v>
+        <v>10243.441867196</v>
       </c>
       <c r="D15" t="n">
-        <v>334.668132800774</v>
+        <v>334.668132804029</v>
       </c>
     </row>
     <row r="16">
@@ -924,10 +926,10 @@
         <v>10967.81</v>
       </c>
       <c r="C16" t="n">
-        <v>10982.6089018303</v>
+        <v>10982.608901827</v>
       </c>
       <c r="D16" t="n">
-        <v>-14.7989018302633</v>
+        <v>-14.7989018270127</v>
       </c>
     </row>
     <row r="17">
@@ -938,10 +940,10 @@
         <v>10795.78</v>
       </c>
       <c r="C17" t="n">
-        <v>11108.6792885919</v>
+        <v>11108.6792885886</v>
       </c>
       <c r="D17" t="n">
-        <v>-312.899288591861</v>
+        <v>-312.899288588607</v>
       </c>
     </row>
     <row r="18">
@@ -952,10 +954,10 @@
         <v>10650.19</v>
       </c>
       <c r="C18" t="n">
-        <v>10781.1867717327</v>
+        <v>10781.1867717294</v>
       </c>
       <c r="D18" t="n">
-        <v>-130.996771732694</v>
+        <v>-130.99677172944</v>
       </c>
     </row>
     <row r="19">
@@ -966,10 +968,10 @@
         <v>14062.82</v>
       </c>
       <c r="C19" t="n">
-        <v>14447.5542319718</v>
+        <v>14447.5542319686</v>
       </c>
       <c r="D19" t="n">
-        <v>-384.734231971839</v>
+        <v>-384.73423196857</v>
       </c>
     </row>
     <row r="20">
@@ -980,10 +982,10 @@
         <v>11709.1</v>
       </c>
       <c r="C20" t="n">
-        <v>10654.3424713471</v>
+        <v>10654.3424713438</v>
       </c>
       <c r="D20" t="n">
-        <v>1054.75752865295</v>
+        <v>1054.75752865617</v>
       </c>
     </row>
     <row r="21">
@@ -994,10 +996,10 @@
         <v>11729.18</v>
       </c>
       <c r="C21" t="n">
-        <v>11371.6706244664</v>
+        <v>11371.6706244632</v>
       </c>
       <c r="D21" t="n">
-        <v>357.509375533595</v>
+        <v>357.509375536807</v>
       </c>
     </row>
     <row r="22">
@@ -1008,10 +1010,10 @@
         <v>12363.61</v>
       </c>
       <c r="C22" t="n">
-        <v>11489.5385579533</v>
+        <v>11489.5385579501</v>
       </c>
       <c r="D22" t="n">
-        <v>874.071442046739</v>
+        <v>874.071442049939</v>
       </c>
     </row>
     <row r="23">
@@ -1022,10 +1024,10 @@
         <v>12549.12</v>
       </c>
       <c r="C23" t="n">
-        <v>11639.5022970136</v>
+        <v>11639.5022970104</v>
       </c>
       <c r="D23" t="n">
-        <v>909.61770298641</v>
+        <v>909.617702989628</v>
       </c>
     </row>
     <row r="24">
@@ -1036,10 +1038,10 @@
         <v>11227.84</v>
       </c>
       <c r="C24" t="n">
-        <v>11292.3843579067</v>
+        <v>11292.3843579035</v>
       </c>
       <c r="D24" t="n">
-        <v>-64.544357906736</v>
+        <v>-64.5443579034909</v>
       </c>
     </row>
     <row r="25">
@@ -1050,10 +1052,10 @@
         <v>11278.97</v>
       </c>
       <c r="C25" t="n">
-        <v>11427.7668005719</v>
+        <v>11427.7668005686</v>
       </c>
       <c r="D25" t="n">
-        <v>-148.796800571865</v>
+        <v>-148.796800568634</v>
       </c>
     </row>
     <row r="26">
@@ -1064,10 +1066,10 @@
         <v>11019.38</v>
       </c>
       <c r="C26" t="n">
-        <v>11185.4457046452</v>
+        <v>11185.445704642</v>
       </c>
       <c r="D26" t="n">
-        <v>-166.065704645222</v>
+        <v>-166.065704641986</v>
       </c>
     </row>
     <row r="27">
@@ -1078,10 +1080,10 @@
         <v>11115.75</v>
       </c>
       <c r="C27" t="n">
-        <v>10863.09541726</v>
+        <v>10863.0954172567</v>
       </c>
       <c r="D27" t="n">
-        <v>252.654582740046</v>
+        <v>252.654582743326</v>
       </c>
     </row>
     <row r="28">
@@ -1092,10 +1094,10 @@
         <v>12955.86</v>
       </c>
       <c r="C28" t="n">
-        <v>12477.4623202569</v>
+        <v>12477.4623202536</v>
       </c>
       <c r="D28" t="n">
-        <v>478.397679743144</v>
+        <v>478.397679746429</v>
       </c>
     </row>
     <row r="29">
@@ -1106,10 +1108,10 @@
         <v>9421.22</v>
       </c>
       <c r="C29" t="n">
-        <v>9332.62181847271</v>
+        <v>9332.62181846944</v>
       </c>
       <c r="D29" t="n">
-        <v>88.598181527288</v>
+        <v>88.598181530564</v>
       </c>
     </row>
     <row r="30">
@@ -1120,10 +1122,10 @@
         <v>10037.4</v>
       </c>
       <c r="C30" t="n">
-        <v>9788.13501100546</v>
+        <v>9788.13501100222</v>
       </c>
       <c r="D30" t="n">
-        <v>249.264988994535</v>
+        <v>249.264988997782</v>
       </c>
     </row>
     <row r="31">
@@ -1134,10 +1136,10 @@
         <v>9691.71</v>
       </c>
       <c r="C31" t="n">
-        <v>9662.20438488506</v>
+        <v>9662.20438488181</v>
       </c>
       <c r="D31" t="n">
-        <v>29.5056151149347</v>
+        <v>29.5056151181889</v>
       </c>
     </row>
     <row r="32">
@@ -1148,10 +1150,10 @@
         <v>9827.3</v>
       </c>
       <c r="C32" t="n">
-        <v>9936.67833782461</v>
+        <v>9936.67833782133</v>
       </c>
       <c r="D32" t="n">
-        <v>-109.378337824612</v>
+        <v>-109.378337821328</v>
       </c>
     </row>
     <row r="33">
@@ -1162,10 +1164,10 @@
         <v>9700.86</v>
       </c>
       <c r="C33" t="n">
-        <v>9845.33109010146</v>
+        <v>9845.33109009817</v>
       </c>
       <c r="D33" t="n">
-        <v>-144.471090101462</v>
+        <v>-144.471090098166</v>
       </c>
     </row>
     <row r="34">
@@ -1176,10 +1178,10 @@
         <v>9295.21</v>
       </c>
       <c r="C34" t="n">
-        <v>9468.80748895767</v>
+        <v>9468.8074889544</v>
       </c>
       <c r="D34" t="n">
-        <v>-173.59748895767</v>
+        <v>-173.597488954405</v>
       </c>
     </row>
     <row r="35">
@@ -1190,10 +1192,10 @@
         <v>9564.86</v>
       </c>
       <c r="C35" t="n">
-        <v>9930.53609591974</v>
+        <v>9930.53609591645</v>
       </c>
       <c r="D35" t="n">
-        <v>-365.676095919736</v>
+        <v>-365.676095916451</v>
       </c>
     </row>
     <row r="36">
@@ -1204,10 +1206,10 @@
         <v>10975.28</v>
       </c>
       <c r="C36" t="n">
-        <v>10960.9907954708</v>
+        <v>10960.9907954675</v>
       </c>
       <c r="D36" t="n">
-        <v>14.2892045292301</v>
+        <v>14.2892045325079</v>
       </c>
     </row>
     <row r="37">
@@ -1218,10 +1220,10 @@
         <v>9407.01</v>
       </c>
       <c r="C37" t="n">
-        <v>9643.00929106219</v>
+        <v>9643.00929105891</v>
       </c>
       <c r="D37" t="n">
-        <v>-235.999291062186</v>
+        <v>-235.999291058914</v>
       </c>
     </row>
     <row r="38">
@@ -1232,10 +1234,10 @@
         <v>9636.6</v>
       </c>
       <c r="C38" t="n">
-        <v>9830.75669232359</v>
+        <v>9830.75669232032</v>
       </c>
       <c r="D38" t="n">
-        <v>-194.15669232359</v>
+        <v>-194.156692320315</v>
       </c>
     </row>
     <row r="39">
@@ -1246,10 +1248,10 @@
         <v>10647.88</v>
       </c>
       <c r="C39" t="n">
-        <v>10239.7945674891</v>
+        <v>10239.7945674859</v>
       </c>
       <c r="D39" t="n">
-        <v>408.085432510852</v>
+        <v>408.085432514143</v>
       </c>
     </row>
     <row r="40">
@@ -1260,10 +1262,10 @@
         <v>12848.32</v>
       </c>
       <c r="C40" t="n">
-        <v>12722.5201579437</v>
+        <v>12722.5201579404</v>
       </c>
       <c r="D40" t="n">
-        <v>125.799842056344</v>
+        <v>125.799842059627</v>
       </c>
     </row>
     <row r="41">
@@ -1274,10 +1276,10 @@
         <v>10610.61</v>
       </c>
       <c r="C41" t="n">
-        <v>10477.2338884663</v>
+        <v>10477.233888463</v>
       </c>
       <c r="D41" t="n">
-        <v>133.376111533727</v>
+        <v>133.376111536983</v>
       </c>
     </row>
     <row r="42">
@@ -1288,10 +1290,10 @@
         <v>11420.47</v>
       </c>
       <c r="C42" t="n">
-        <v>11236.4381378022</v>
+        <v>11236.4381377989</v>
       </c>
       <c r="D42" t="n">
-        <v>184.031862197799</v>
+        <v>184.031862201065</v>
       </c>
     </row>
     <row r="43">
@@ -1302,10 +1304,10 @@
         <v>13457.96</v>
       </c>
       <c r="C43" t="n">
-        <v>13262.5718145598</v>
+        <v>13262.5718145565</v>
       </c>
       <c r="D43" t="n">
-        <v>195.388185440159</v>
+        <v>195.388185443469</v>
       </c>
     </row>
     <row r="44">
@@ -1316,10 +1318,10 @@
         <v>17008.97</v>
       </c>
       <c r="C44" t="n">
-        <v>18385.4845015891</v>
+        <v>18385.4845015858</v>
       </c>
       <c r="D44" t="n">
-        <v>-1376.51450158914</v>
+        <v>-1376.5145015858</v>
       </c>
     </row>
     <row r="45">
@@ -1330,10 +1332,10 @@
         <v>14133.13</v>
       </c>
       <c r="C45" t="n">
-        <v>14325.483521577</v>
+        <v>14325.4835215738</v>
       </c>
       <c r="D45" t="n">
-        <v>-192.353521577048</v>
+        <v>-192.353521573763</v>
       </c>
     </row>
     <row r="46">
@@ -1344,10 +1346,10 @@
         <v>8465.43</v>
       </c>
       <c r="C46" t="n">
-        <v>7793.28724188576</v>
+        <v>7793.28724188249</v>
       </c>
       <c r="D46" t="n">
-        <v>672.142758114242</v>
+        <v>672.142758117514</v>
       </c>
     </row>
     <row r="47">
@@ -1358,10 +1360,10 @@
         <v>9497.52</v>
       </c>
       <c r="C47" t="n">
-        <v>8873.26647407066</v>
+        <v>8873.26647406739</v>
       </c>
       <c r="D47" t="n">
-        <v>624.253525929344</v>
+        <v>624.253525932611</v>
       </c>
     </row>
     <row r="48">
@@ -1372,10 +1374,10 @@
         <v>9326.94</v>
       </c>
       <c r="C48" t="n">
-        <v>8755.69999778077</v>
+        <v>8755.6999977775</v>
       </c>
       <c r="D48" t="n">
-        <v>571.240002219229</v>
+        <v>571.240002222505</v>
       </c>
     </row>
     <row r="49">
@@ -1386,10 +1388,10 @@
         <v>9600.68</v>
       </c>
       <c r="C49" t="n">
-        <v>9323.42137582343</v>
+        <v>9323.42137582018</v>
       </c>
       <c r="D49" t="n">
-        <v>277.258624176566</v>
+        <v>277.25862417982</v>
       </c>
     </row>
     <row r="50">
@@ -1400,10 +1402,10 @@
         <v>10610.25</v>
       </c>
       <c r="C50" t="n">
-        <v>9596.02342608305</v>
+        <v>9596.0234260798</v>
       </c>
       <c r="D50" t="n">
-        <v>1014.22657391695</v>
+        <v>1014.2265739202</v>
       </c>
     </row>
     <row r="51">
@@ -1414,10 +1416,10 @@
         <v>9655.37</v>
       </c>
       <c r="C51" t="n">
-        <v>9068.08771717531</v>
+        <v>9068.08771717203</v>
       </c>
       <c r="D51" t="n">
-        <v>587.282282824694</v>
+        <v>587.282282827975</v>
       </c>
     </row>
     <row r="52">
@@ -1428,10 +1430,10 @@
         <v>9232.26</v>
       </c>
       <c r="C52" t="n">
-        <v>8908.9623822345</v>
+        <v>8908.96238223122</v>
       </c>
       <c r="D52" t="n">
-        <v>323.2976177655</v>
+        <v>323.297617768785</v>
       </c>
     </row>
     <row r="53">
@@ -1442,10 +1444,10 @@
         <v>9427.94</v>
       </c>
       <c r="C53" t="n">
-        <v>9102.51078689525</v>
+        <v>9102.51078689197</v>
       </c>
       <c r="D53" t="n">
-        <v>325.429213104746</v>
+        <v>325.429213108033</v>
       </c>
     </row>
     <row r="54">
@@ -1456,10 +1458,10 @@
         <v>8968.22</v>
       </c>
       <c r="C54" t="n">
-        <v>8933.80659857985</v>
+        <v>8933.80659857657</v>
       </c>
       <c r="D54" t="n">
-        <v>34.4134014201463</v>
+        <v>34.4134014234296</v>
       </c>
     </row>
     <row r="55">
@@ -1470,10 +1472,10 @@
         <v>8965.64</v>
       </c>
       <c r="C55" t="n">
-        <v>8914.07819275288</v>
+        <v>8914.0781927496</v>
       </c>
       <c r="D55" t="n">
-        <v>51.5618072471243</v>
+        <v>51.5618072504039</v>
       </c>
     </row>
     <row r="56">
@@ -1484,10 +1486,10 @@
         <v>9167.48</v>
       </c>
       <c r="C56" t="n">
-        <v>9173.56143719951</v>
+        <v>9173.56143719623</v>
       </c>
       <c r="D56" t="n">
-        <v>-6.08143719951295</v>
+        <v>-6.08143719623513</v>
       </c>
     </row>
     <row r="57">
@@ -1498,10 +1500,10 @@
         <v>9399.99</v>
       </c>
       <c r="C57" t="n">
-        <v>9249.12395679907</v>
+        <v>9249.1239567958</v>
       </c>
       <c r="D57" t="n">
-        <v>150.866043200929</v>
+        <v>150.866043204196</v>
       </c>
     </row>
     <row r="58">
@@ -1512,10 +1514,10 @@
         <v>8840.15</v>
       </c>
       <c r="C58" t="n">
-        <v>9346.81570041651</v>
+        <v>9346.81570041323</v>
       </c>
       <c r="D58" t="n">
-        <v>-506.665700416512</v>
+        <v>-506.665700413228</v>
       </c>
     </row>
     <row r="59">
@@ -1526,10 +1528,10 @@
         <v>8501.06</v>
       </c>
       <c r="C59" t="n">
-        <v>9084.15404450657</v>
+        <v>9084.15404450329</v>
       </c>
       <c r="D59" t="n">
-        <v>-583.094044506572</v>
+        <v>-583.094044503292</v>
       </c>
     </row>
     <row r="60">
@@ -1540,10 +1542,10 @@
         <v>8769.78</v>
       </c>
       <c r="C60" t="n">
-        <v>9270.85241684737</v>
+        <v>9270.85241684407</v>
       </c>
       <c r="D60" t="n">
-        <v>-501.07241684737</v>
+        <v>-501.07241684407</v>
       </c>
     </row>
     <row r="61">
@@ -1554,10 +1556,10 @@
         <v>8650.31</v>
       </c>
       <c r="C61" t="n">
-        <v>9309.48634018129</v>
+        <v>9309.486340178</v>
       </c>
       <c r="D61" t="n">
-        <v>-659.176340181286</v>
+        <v>-659.176340177997</v>
       </c>
     </row>
     <row r="62">
@@ -1568,10 +1570,10 @@
         <v>8788.01</v>
       </c>
       <c r="C62" t="n">
-        <v>9790.96738005115</v>
+        <v>9790.96738004793</v>
       </c>
       <c r="D62" t="n">
-        <v>-1002.95738005115</v>
+        <v>-1002.95738004793</v>
       </c>
     </row>
     <row r="63">
@@ -1582,10 +1584,10 @@
         <v>10115.08</v>
       </c>
       <c r="C63" t="n">
-        <v>9767.75804548049</v>
+        <v>9767.75804547731</v>
       </c>
       <c r="D63" t="n">
-        <v>347.321954519512</v>
+        <v>347.321954522688</v>
       </c>
     </row>
     <row r="64">
@@ -1596,10 +1598,10 @@
         <v>9652.56</v>
       </c>
       <c r="C64" t="n">
-        <v>9533.58151621395</v>
+        <v>9533.58151621079</v>
       </c>
       <c r="D64" t="n">
-        <v>118.978483786046</v>
+        <v>118.978483789213</v>
       </c>
     </row>
     <row r="65">
@@ -1610,10 +1612,10 @@
         <v>9988.79</v>
       </c>
       <c r="C65" t="n">
-        <v>11189.8960450408</v>
+        <v>11189.8960450376</v>
       </c>
       <c r="D65" t="n">
-        <v>-1201.10604504076</v>
+        <v>-1201.10604503757</v>
       </c>
     </row>
     <row r="66">
@@ -1624,10 +1626,10 @@
         <v>13229.39</v>
       </c>
       <c r="C66" t="n">
-        <v>11619.3376964924</v>
+        <v>11619.3376964892</v>
       </c>
       <c r="D66" t="n">
-        <v>1610.05230350761</v>
+        <v>1610.05230351083</v>
       </c>
     </row>
     <row r="67">
@@ -1638,10 +1640,10 @@
         <v>9873.34</v>
       </c>
       <c r="C67" t="n">
-        <v>10329.8847511707</v>
+        <v>10329.8847511675</v>
       </c>
       <c r="D67" t="n">
-        <v>-456.544751170732</v>
+        <v>-456.544751167501</v>
       </c>
     </row>
     <row r="68">
@@ -1652,10 +1654,10 @@
         <v>10803.02</v>
       </c>
       <c r="C68" t="n">
-        <v>11213.2028543671</v>
+        <v>11213.2028543639</v>
       </c>
       <c r="D68" t="n">
-        <v>-410.182854367131</v>
+        <v>-410.182854363919</v>
       </c>
     </row>
     <row r="69">
@@ -1666,10 +1668,10 @@
         <v>11306.49</v>
       </c>
       <c r="C69" t="n">
-        <v>11333.0073527233</v>
+        <v>11333.0073527201</v>
       </c>
       <c r="D69" t="n">
-        <v>-26.5173527233146</v>
+        <v>-26.5173527201005</v>
       </c>
     </row>
     <row r="70">
@@ -1680,10 +1682,10 @@
         <v>12191.04</v>
       </c>
       <c r="C70" t="n">
-        <v>11354.6589971121</v>
+        <v>11354.6589971089</v>
       </c>
       <c r="D70" t="n">
-        <v>836.381002887922</v>
+        <v>836.381002891118</v>
       </c>
     </row>
     <row r="71">
@@ -1694,10 +1696,10 @@
         <v>16450.66</v>
       </c>
       <c r="C71" t="n">
-        <v>14940.7889093996</v>
+        <v>14940.7889093964</v>
       </c>
       <c r="D71" t="n">
-        <v>1509.87109060037</v>
+        <v>1509.87109060359</v>
       </c>
     </row>
     <row r="72">
@@ -1708,10 +1710,10 @@
         <v>10618.76</v>
       </c>
       <c r="C72" t="n">
-        <v>10874.9032310168</v>
+        <v>10874.9032310136</v>
       </c>
       <c r="D72" t="n">
-        <v>-256.1432310168</v>
+        <v>-256.143231013588</v>
       </c>
     </row>
     <row r="73">
@@ -1722,10 +1724,10 @@
         <v>13129.04</v>
       </c>
       <c r="C73" t="n">
-        <v>11843.5013013397</v>
+        <v>11843.5013013365</v>
       </c>
       <c r="D73" t="n">
-        <v>1285.53869866028</v>
+        <v>1285.53869866351</v>
       </c>
     </row>
     <row r="74">
@@ -1736,10 +1738,10 @@
         <v>13355.72</v>
       </c>
       <c r="C74" t="n">
-        <v>11738.7009009184</v>
+        <v>11738.7009009152</v>
       </c>
       <c r="D74" t="n">
-        <v>1617.01909908161</v>
+        <v>1617.01909908484</v>
       </c>
     </row>
     <row r="75">
@@ -1750,10 +1752,10 @@
         <v>12094.36</v>
       </c>
       <c r="C75" t="n">
-        <v>11774.5052977088</v>
+        <v>11774.5052977056</v>
       </c>
       <c r="D75" t="n">
-        <v>319.854702291177</v>
+        <v>319.854702294395</v>
       </c>
     </row>
     <row r="76">
@@ -1764,10 +1766,10 @@
         <v>11220.74</v>
       </c>
       <c r="C76" t="n">
-        <v>11277.2571324906</v>
+        <v>11277.2571324874</v>
       </c>
       <c r="D76" t="n">
-        <v>-56.5171324905823</v>
+        <v>-56.5171324873736</v>
       </c>
     </row>
     <row r="77">
@@ -1778,10 +1780,10 @@
         <v>10975.62</v>
       </c>
       <c r="C77" t="n">
-        <v>11472.9077601713</v>
+        <v>11472.9077601681</v>
       </c>
       <c r="D77" t="n">
-        <v>-497.287760171279</v>
+        <v>-497.28776016809</v>
       </c>
     </row>
     <row r="78">
@@ -1792,10 +1794,10 @@
         <v>10893.71</v>
       </c>
       <c r="C78" t="n">
-        <v>11369.6418978205</v>
+        <v>11369.6418978173</v>
       </c>
       <c r="D78" t="n">
-        <v>-475.931897820516</v>
+        <v>-475.931897817327</v>
       </c>
     </row>
     <row r="79">
@@ -1806,10 +1808,10 @@
         <v>10542.73</v>
       </c>
       <c r="C79" t="n">
-        <v>11043.916555819</v>
+        <v>11043.9165558158</v>
       </c>
       <c r="D79" t="n">
-        <v>-501.18655581898</v>
+        <v>-501.186555815788</v>
       </c>
     </row>
     <row r="80">
@@ -1820,10 +1822,10 @@
         <v>12753.33</v>
       </c>
       <c r="C80" t="n">
-        <v>12762.7257457527</v>
+        <v>12762.7257457495</v>
       </c>
       <c r="D80" t="n">
-        <v>-9.39574575271035</v>
+        <v>-9.39574574950348</v>
       </c>
     </row>
     <row r="81">
@@ -1834,10 +1836,10 @@
         <v>9347.5</v>
       </c>
       <c r="C81" t="n">
-        <v>9592.76271074904</v>
+        <v>9592.76271074583</v>
       </c>
       <c r="D81" t="n">
-        <v>-245.262710749044</v>
+        <v>-245.262710745834</v>
       </c>
     </row>
     <row r="82">
@@ -1848,10 +1850,10 @@
         <v>9800.28</v>
       </c>
       <c r="C82" t="n">
-        <v>9899.54959002842</v>
+        <v>9899.54959002519</v>
       </c>
       <c r="D82" t="n">
-        <v>-99.2695900284216</v>
+        <v>-99.2695900251929</v>
       </c>
     </row>
     <row r="83">
@@ -1862,10 +1864,10 @@
         <v>9341.86</v>
       </c>
       <c r="C83" t="n">
-        <v>9917.83835827163</v>
+        <v>9917.83835826838</v>
       </c>
       <c r="D83" t="n">
-        <v>-575.978358271625</v>
+        <v>-575.978358268381</v>
       </c>
     </row>
     <row r="84">
@@ -1876,10 +1878,10 @@
         <v>9563.83</v>
       </c>
       <c r="C84" t="n">
-        <v>10137.4738459588</v>
+        <v>10137.4738459556</v>
       </c>
       <c r="D84" t="n">
-        <v>-573.643845958837</v>
+        <v>-573.643845955627</v>
       </c>
     </row>
     <row r="85">
@@ -1890,10 +1892,10 @@
         <v>9305.65</v>
       </c>
       <c r="C85" t="n">
-        <v>10051.5181306441</v>
+        <v>10051.5181306409</v>
       </c>
       <c r="D85" t="n">
-        <v>-745.868130644099</v>
+        <v>-745.868130640898</v>
       </c>
     </row>
     <row r="86">
@@ -1904,10 +1906,10 @@
         <v>8855.96</v>
       </c>
       <c r="C86" t="n">
-        <v>9703.19765968476</v>
+        <v>9703.19765968158</v>
       </c>
       <c r="D86" t="n">
-        <v>-847.237659684764</v>
+        <v>-847.237659681585</v>
       </c>
     </row>
     <row r="87">
@@ -1918,10 +1920,10 @@
         <v>9153.43</v>
       </c>
       <c r="C87" t="n">
-        <v>9967.31246078607</v>
+        <v>9967.31246078286</v>
       </c>
       <c r="D87" t="n">
-        <v>-813.882460786066</v>
+        <v>-813.882460782861</v>
       </c>
     </row>
     <row r="88">
@@ -1932,10 +1934,10 @@
         <v>9868.61</v>
       </c>
       <c r="C88" t="n">
-        <v>11192.8906823012</v>
+        <v>11192.890682298</v>
       </c>
       <c r="D88" t="n">
-        <v>-1324.2806823012</v>
+        <v>-1324.28068229799</v>
       </c>
     </row>
     <row r="89">
@@ -1946,10 +1948,10 @@
         <v>9754.92</v>
       </c>
       <c r="C89" t="n">
-        <v>9974.27324730637</v>
+        <v>9974.27324730313</v>
       </c>
       <c r="D89" t="n">
-        <v>-219.353247306366</v>
+        <v>-219.353247303132</v>
       </c>
     </row>
     <row r="90">
@@ -1960,10 +1962,10 @@
         <v>10238.62</v>
       </c>
       <c r="C90" t="n">
-        <v>10045.1761106354</v>
+        <v>10045.1761106321</v>
       </c>
       <c r="D90" t="n">
-        <v>193.443889364627</v>
+        <v>193.443889367856</v>
       </c>
     </row>
     <row r="91">
@@ -1974,10 +1976,10 @@
         <v>10078.72</v>
       </c>
       <c r="C91" t="n">
-        <v>10527.3555721163</v>
+        <v>10527.3555721131</v>
       </c>
       <c r="D91" t="n">
-        <v>-448.635572116342</v>
+        <v>-448.635572113109</v>
       </c>
     </row>
     <row r="92">
@@ -1988,10 +1990,10 @@
         <v>12789.45</v>
       </c>
       <c r="C92" t="n">
-        <v>13012.5987300462</v>
+        <v>13012.5987300429</v>
       </c>
       <c r="D92" t="n">
-        <v>-223.148730046238</v>
+        <v>-223.148730042945</v>
       </c>
     </row>
     <row r="93">
@@ -2002,10 +2004,10 @@
         <v>11081.17</v>
       </c>
       <c r="C93" t="n">
-        <v>10776.1009901597</v>
+        <v>10776.1009901564</v>
       </c>
       <c r="D93" t="n">
-        <v>305.069009840343</v>
+        <v>305.069009843553</v>
       </c>
     </row>
     <row r="94">
@@ -2016,10 +2018,10 @@
         <v>11307.97</v>
       </c>
       <c r="C94" t="n">
-        <v>11663.8133350883</v>
+        <v>11663.8133350851</v>
       </c>
       <c r="D94" t="n">
-        <v>-355.843335088299</v>
+        <v>-355.843335085065</v>
       </c>
     </row>
     <row r="95">
@@ -2030,10 +2032,10 @@
         <v>13003.97</v>
       </c>
       <c r="C95" t="n">
-        <v>13736.7861480553</v>
+        <v>13736.786148052</v>
       </c>
       <c r="D95" t="n">
-        <v>-732.816148055272</v>
+        <v>-732.816148052021</v>
       </c>
     </row>
     <row r="96">
@@ -2044,10 +2046,10 @@
         <v>19320.26</v>
       </c>
       <c r="C96" t="n">
-        <v>18911.7796601345</v>
+        <v>18911.7796601312</v>
       </c>
       <c r="D96" t="n">
-        <v>408.48033986552</v>
+        <v>408.480339868835</v>
       </c>
     </row>
     <row r="97">
@@ -2058,10 +2060,10 @@
         <v>14074.09</v>
       </c>
       <c r="C97" t="n">
-        <v>14800.73263749</v>
+        <v>14800.7326374867</v>
       </c>
       <c r="D97" t="n">
-        <v>-726.642637489993</v>
+        <v>-726.642637486735</v>
       </c>
     </row>
     <row r="98">
@@ -2072,10 +2074,10 @@
         <v>6879.31</v>
       </c>
       <c r="C98" t="n">
-        <v>7816.31448339468</v>
+        <v>7816.31448339143</v>
       </c>
       <c r="D98" t="n">
-        <v>-937.004483394679</v>
+        <v>-937.004483391428</v>
       </c>
     </row>
     <row r="99">
@@ -2086,10 +2088,10 @@
         <v>8394.7</v>
       </c>
       <c r="C99" t="n">
-        <v>8807.13167831085</v>
+        <v>8807.13167830757</v>
       </c>
       <c r="D99" t="n">
-        <v>-412.431678310846</v>
+        <v>-412.431678307568</v>
       </c>
     </row>
     <row r="100">
@@ -2100,10 +2102,10 @@
         <v>7934.16</v>
       </c>
       <c r="C100" t="n">
-        <v>8538.96495765123</v>
+        <v>8538.96495764794</v>
       </c>
       <c r="D100" t="n">
-        <v>-604.804957651229</v>
+        <v>-604.804957647941</v>
       </c>
     </row>
     <row r="101">
@@ -2114,10 +2116,10 @@
         <v>8174.58</v>
       </c>
       <c r="C101" t="n">
-        <v>9034.31572426461</v>
+        <v>9034.31572426134</v>
       </c>
       <c r="D101" t="n">
-        <v>-859.73572426461</v>
+        <v>-859.735724261338</v>
       </c>
     </row>
     <row r="102">
@@ -2128,10 +2130,10 @@
         <v>9285.12</v>
       </c>
       <c r="C102" t="n">
-        <v>9433.82381613679</v>
+        <v>9433.82381613353</v>
       </c>
       <c r="D102" t="n">
-        <v>-148.703816136791</v>
+        <v>-148.703816133533</v>
       </c>
     </row>
     <row r="103">
@@ -2142,10 +2144,10 @@
         <v>8198.91</v>
       </c>
       <c r="C103" t="n">
-        <v>8971.74835710721</v>
+        <v>8971.74835710395</v>
       </c>
       <c r="D103" t="n">
-        <v>-772.838357107208</v>
+        <v>-772.838357103949</v>
       </c>
     </row>
     <row r="104">
@@ -2156,10 +2158,10 @@
         <v>8757.38</v>
       </c>
       <c r="C104" t="n">
-        <v>9020.71094859064</v>
+        <v>9020.71094858739</v>
       </c>
       <c r="D104" t="n">
-        <v>-263.330948590645</v>
+        <v>-263.330948587389</v>
       </c>
     </row>
     <row r="105">
@@ -2170,10 +2172,10 @@
         <v>8774.83</v>
       </c>
       <c r="C105" t="n">
-        <v>9247.24958723936</v>
+        <v>9247.24958723611</v>
       </c>
       <c r="D105" t="n">
-        <v>-472.419587239365</v>
+        <v>-472.419587236109</v>
       </c>
     </row>
     <row r="106">
@@ -2184,10 +2186,10 @@
         <v>9517.85</v>
       </c>
       <c r="C106" t="n">
-        <v>9381.65003028662</v>
+        <v>9381.65003028341</v>
       </c>
       <c r="D106" t="n">
-        <v>136.199969713383</v>
+        <v>136.199969716594</v>
       </c>
     </row>
     <row r="107">
@@ -2198,10 +2200,10 @@
         <v>9331.14</v>
       </c>
       <c r="C107" t="n">
-        <v>9286.08305359759</v>
+        <v>9286.08305359437</v>
       </c>
       <c r="D107" t="n">
-        <v>45.0569464024102</v>
+        <v>45.056946405628</v>
       </c>
     </row>
     <row r="108">
@@ -2212,10 +2214,10 @@
         <v>9395.24</v>
       </c>
       <c r="C108" t="n">
-        <v>9508.60383537389</v>
+        <v>9508.60383537068</v>
       </c>
       <c r="D108" t="n">
-        <v>-113.363835373893</v>
+        <v>-113.363835370676</v>
       </c>
     </row>
     <row r="109">
@@ -2226,10 +2228,10 @@
         <v>9357.39</v>
       </c>
       <c r="C109" t="n">
-        <v>9585.12616425871</v>
+        <v>9585.1261642555</v>
       </c>
       <c r="D109" t="n">
-        <v>-227.736164258708</v>
+        <v>-227.736164255497</v>
       </c>
     </row>
     <row r="110">
@@ -2240,10 +2242,10 @@
         <v>9696.17</v>
       </c>
       <c r="C110" t="n">
-        <v>9851.21396197643</v>
+        <v>9851.21396197322</v>
       </c>
       <c r="D110" t="n">
-        <v>-155.043961976429</v>
+        <v>-155.043961973222</v>
       </c>
     </row>
   </sheetData>
@@ -2253,12 +2255,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2395,13 +2397,13 @@
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2" t="n">
-        <v>16672.9036079754</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="X2" t="n">
-        <v>1707.2989386175</v>
+        <v>1707.29893861751</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.76566155513244</v>
+        <v>9.76566155513079</v>
       </c>
       <c r="Z2" t="n">
         <v>0.898639423308332</v>
@@ -2462,13 +2464,13 @@
         <v>2.02522914396782</v>
       </c>
       <c r="W3" t="n">
-        <v>0.38344703859756</v>
+        <v>0.383447038597558</v>
       </c>
       <c r="X3" t="n">
         <v>0.0186453786969359</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.565258814538</v>
+        <v>20.5652588145379</v>
       </c>
       <c r="Z3" t="n">
         <v>0.898639423308332</v>
@@ -2531,13 +2533,13 @@
         <v>1.38904084727459</v>
       </c>
       <c r="W4" t="n">
-        <v>-52.3668484207657</v>
+        <v>-52.3668484207742</v>
       </c>
       <c r="X4" t="n">
-        <v>17.2187982812538</v>
+        <v>17.2187982812537</v>
       </c>
       <c r="Y4" t="n">
-        <v>-3.04126034612868</v>
+        <v>-3.04126034612919</v>
       </c>
       <c r="Z4" t="n">
         <v>0.898639423308332</v>
@@ -2600,13 +2602,13 @@
         <v>1.26572607040731</v>
       </c>
       <c r="W5" t="n">
-        <v>1.4789490392002</v>
+        <v>1.47894903920076</v>
       </c>
       <c r="X5" t="n">
-        <v>7.6349879721269</v>
+        <v>7.63498797212692</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.193706793592787</v>
+        <v>0.193706793592861</v>
       </c>
       <c r="Z5" t="n">
         <v>0.898639423308332</v>
@@ -2675,13 +2677,13 @@
         <v>2.1929280146193</v>
       </c>
       <c r="W6" t="n">
-        <v>148.523387664102</v>
+        <v>148.523387664109</v>
       </c>
       <c r="X6" t="n">
         <v>146.090109876555</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.01665600627998</v>
+        <v>1.01665600628003</v>
       </c>
       <c r="Z6" t="n">
         <v>0.898639423308332</v>
@@ -2750,13 +2752,13 @@
         <v>1.40469699213356</v>
       </c>
       <c r="W7" t="n">
-        <v>9.28050479643337</v>
+        <v>9.28050479641771</v>
       </c>
       <c r="X7" t="n">
         <v>111.210247320131</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0834500868406344</v>
+        <v>0.0834500868404936</v>
       </c>
       <c r="Z7" t="n">
         <v>0.898639423308332</v>
@@ -2825,13 +2827,13 @@
         <v>1.88215133324874</v>
       </c>
       <c r="W8" t="n">
-        <v>108.12869143918</v>
+        <v>108.128691439122</v>
       </c>
       <c r="X8" t="n">
-        <v>409.001101095633</v>
+        <v>409.001101095631</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.26437261696735</v>
+        <v>0.264372616967209</v>
       </c>
       <c r="Z8" t="n">
         <v>0.898639423308332</v>
@@ -2890,13 +2892,13 @@
         <v>1.55880633603362</v>
       </c>
       <c r="W9" t="n">
-        <v>-685.10965326382</v>
+        <v>-685.109653263298</v>
       </c>
       <c r="X9" t="n">
         <v>1072.74540097585</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.638650748481974</v>
+        <v>-0.638650748481488</v>
       </c>
       <c r="Z9" t="n">
         <v>0.898639423308332</v>
@@ -2912,12 +2914,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2927,27 +2929,30 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>64</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2959,28 +2964,31 @@
         <v>9688.1</v>
       </c>
       <c r="C2" t="n">
-        <v>16672.9036079754</v>
+        <v>8945.43214841367</v>
       </c>
       <c r="D2" t="n">
+        <v>16672.9036079726</v>
+      </c>
+      <c r="E2" t="n">
         <v>-1523.98007915785</v>
       </c>
-      <c r="E2" t="n">
-        <v>-5831.38021614</v>
-      </c>
       <c r="F2" t="n">
-        <v>66.4556156822191</v>
+        <v>-5831.38021614094</v>
       </c>
       <c r="G2" t="n">
-        <v>56.7473049200645</v>
+        <v>66.4556156822445</v>
       </c>
       <c r="H2" t="n">
-        <v>7.0768012668857</v>
+        <v>56.7473049200671</v>
       </c>
       <c r="I2" t="n">
+        <v>7.07680126687376</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>-502.390886129741</v>
+      <c r="K2" t="n">
+        <v>-502.390886129358</v>
       </c>
     </row>
     <row r="3">
@@ -2991,28 +2999,31 @@
         <v>9481.91</v>
       </c>
       <c r="C3" t="n">
-        <v>16672.9036079754</v>
+        <v>8828.5364791368</v>
       </c>
       <c r="D3" t="n">
+        <v>16672.9036079726</v>
+      </c>
+      <c r="E3" t="n">
         <v>-1533.79278029531</v>
       </c>
-      <c r="E3" t="n">
-        <v>-5916.9961276878</v>
-      </c>
       <c r="F3" t="n">
-        <v>66.4556156822191</v>
+        <v>-5916.99612768875</v>
       </c>
       <c r="G3" t="n">
-        <v>48.7878353824508</v>
+        <v>66.4556156822445</v>
       </c>
       <c r="H3" t="n">
-        <v>8.14816128453074</v>
+        <v>48.787835382453</v>
       </c>
       <c r="I3" t="n">
+        <v>8.14816128451699</v>
+      </c>
+      <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>-516.969833201369</v>
+      <c r="K3" t="n">
+        <v>-516.969833200975</v>
       </c>
     </row>
     <row r="4">
@@ -3023,28 +3034,31 @@
         <v>9617.78</v>
       </c>
       <c r="C4" t="n">
-        <v>16672.9036079754</v>
+        <v>8976.28752777259</v>
       </c>
       <c r="D4" t="n">
+        <v>16672.9036079726</v>
+      </c>
+      <c r="E4" t="n">
         <v>-1341.9937510719</v>
       </c>
-      <c r="E4" t="n">
-        <v>-5952.26477592771</v>
-      </c>
       <c r="F4" t="n">
-        <v>66.4556156822191</v>
+        <v>-5952.26477592867</v>
       </c>
       <c r="G4" t="n">
-        <v>49.9161653066026</v>
+        <v>66.4556156822445</v>
       </c>
       <c r="H4" t="n">
-        <v>8.37824810606979</v>
+        <v>49.9161653066049</v>
       </c>
       <c r="I4" t="n">
+        <v>8.37824810605565</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>-527.107582294772</v>
+      <c r="K4" t="n">
+        <v>-527.10758229437</v>
       </c>
     </row>
     <row r="5">
@@ -3055,28 +3069,31 @@
         <v>9281.95</v>
       </c>
       <c r="C5" t="n">
-        <v>16672.9036079754</v>
+        <v>8902.12571571565</v>
       </c>
       <c r="D5" t="n">
-        <v>-1300.59151606544</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E5" t="n">
-        <v>-6046.24303429276</v>
+        <v>-1300.59151606543</v>
       </c>
       <c r="F5" t="n">
-        <v>66.4556156822191</v>
+        <v>-6046.24303429373</v>
       </c>
       <c r="G5" t="n">
-        <v>41.2475378066616</v>
+        <v>66.4556156822445</v>
       </c>
       <c r="H5" t="n">
-        <v>8.40094612977217</v>
+        <v>41.2475378066635</v>
       </c>
       <c r="I5" t="n">
+        <v>8.40094612975799</v>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>-540.047441516888</v>
+      <c r="K5" t="n">
+        <v>-540.047441516476</v>
       </c>
     </row>
     <row r="6">
@@ -3087,28 +3104,31 @@
         <v>9182.17</v>
       </c>
       <c r="C6" t="n">
-        <v>16672.9036079754</v>
+        <v>9088.6671428225</v>
       </c>
       <c r="D6" t="n">
+        <v>16672.9036079726</v>
+      </c>
+      <c r="E6" t="n">
         <v>-1035.07157655099</v>
       </c>
-      <c r="E6" t="n">
-        <v>-6036.25595887309</v>
-      </c>
       <c r="F6" t="n">
-        <v>65.0679048431439</v>
+        <v>-6036.25595887407</v>
       </c>
       <c r="G6" t="n">
-        <v>8.34315475590956</v>
+        <v>65.0679048431689</v>
       </c>
       <c r="H6" t="n">
-        <v>3.92277757637197</v>
+        <v>8.34315475590995</v>
       </c>
       <c r="I6" t="n">
+        <v>3.92277757636535</v>
+      </c>
+      <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>-590.242766900964</v>
+      <c r="K6" t="n">
+        <v>-590.242766900514</v>
       </c>
     </row>
     <row r="7">
@@ -3119,28 +3139,31 @@
         <v>8654.48</v>
       </c>
       <c r="C7" t="n">
-        <v>16672.9036079754</v>
+        <v>8714.47776767426</v>
       </c>
       <c r="D7" t="n">
-        <v>-1186.87720771999</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E7" t="n">
-        <v>-6227.80869036821</v>
+        <v>-1186.87720771998</v>
       </c>
       <c r="F7" t="n">
-        <v>67.4624113498664</v>
+        <v>-6227.80869036921</v>
       </c>
       <c r="G7" t="n">
-        <v>4.40453389196658</v>
+        <v>67.4624113498922</v>
       </c>
       <c r="H7" t="n">
-        <v>0.475803299481473</v>
+        <v>4.40453389196678</v>
       </c>
       <c r="I7" t="n">
+        <v>0.47580329948067</v>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>-616.082690750986</v>
+      <c r="K7" t="n">
+        <v>-616.082690750516</v>
       </c>
     </row>
     <row r="8">
@@ -3151,28 +3174,31 @@
         <v>8878.51</v>
       </c>
       <c r="C8" t="n">
-        <v>16672.9036079754</v>
+        <v>9045.12708663026</v>
       </c>
       <c r="D8" t="n">
-        <v>-840.842549499469</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E8" t="n">
-        <v>-6249.97550922781</v>
+        <v>-840.842549499465</v>
       </c>
       <c r="F8" t="n">
-        <v>67.4624113498664</v>
+        <v>-6249.97550922882</v>
       </c>
       <c r="G8" t="n">
-        <v>15.6498732725622</v>
+        <v>67.4624113498922</v>
       </c>
       <c r="H8" t="n">
-        <v>2.4994276896854</v>
+        <v>15.6498732725629</v>
       </c>
       <c r="I8" t="n">
+        <v>2.49942768968119</v>
+      </c>
+      <c r="J8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>-622.570174926689</v>
+      <c r="K8" t="n">
+        <v>-622.570174926215</v>
       </c>
     </row>
     <row r="9">
@@ -3183,28 +3209,31 @@
         <v>9100.7</v>
       </c>
       <c r="C9" t="n">
-        <v>16672.9036079754</v>
+        <v>9057.57156055458</v>
       </c>
       <c r="D9" t="n">
-        <v>-859.692870336027</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E9" t="n">
-        <v>-6237.7746462379</v>
+        <v>-859.692870336023</v>
       </c>
       <c r="F9" t="n">
-        <v>67.4624113498664</v>
+        <v>-6237.77464623891</v>
       </c>
       <c r="G9" t="n">
-        <v>20.0914341544272</v>
+        <v>67.4624113498922</v>
       </c>
       <c r="H9" t="n">
-        <v>5.9029091900117</v>
+        <v>20.0914341544282</v>
       </c>
       <c r="I9" t="n">
+        <v>5.90290919000174</v>
+      </c>
+      <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>-611.321285537908</v>
+      <c r="K9" t="n">
+        <v>-611.321285537442</v>
       </c>
     </row>
     <row r="10">
@@ -3215,28 +3244,31 @@
         <v>9421.59</v>
       </c>
       <c r="C10" t="n">
-        <v>16672.9036079754</v>
+        <v>9279.38864183652</v>
       </c>
       <c r="D10" t="n">
-        <v>-446.745280908273</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E10" t="n">
-        <v>-6435.0175647191</v>
+        <v>-446.745280908271</v>
       </c>
       <c r="F10" t="n">
-        <v>65.6656534510563</v>
+        <v>-6435.01756472014</v>
       </c>
       <c r="G10" t="n">
-        <v>22.7476534472438</v>
+        <v>65.6656534510815</v>
       </c>
       <c r="H10" t="n">
-        <v>6.96037130480063</v>
+        <v>22.7476534472449</v>
       </c>
       <c r="I10" t="n">
+        <v>6.96037130478888</v>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>-607.125798711277</v>
+      <c r="K10" t="n">
+        <v>-607.125798710815</v>
       </c>
     </row>
     <row r="11">
@@ -3247,28 +3279,31 @@
         <v>10669.67</v>
       </c>
       <c r="C11" t="n">
-        <v>16672.9036079754</v>
+        <v>9691.48568734454</v>
       </c>
       <c r="D11" t="n">
-        <v>-571.783924509471</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E11" t="n">
-        <v>-5904.17741967348</v>
+        <v>-571.783924509469</v>
       </c>
       <c r="F11" t="n">
-        <v>63.5002310925003</v>
+        <v>-5904.17741967443</v>
       </c>
       <c r="G11" t="n">
-        <v>29.8528443491871</v>
+        <v>63.5002310925246</v>
       </c>
       <c r="H11" t="n">
-        <v>8.43968716782341</v>
+        <v>29.8528443491884</v>
       </c>
       <c r="I11" t="n">
+        <v>8.43968716780917</v>
+      </c>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>-607.249339054173</v>
+      <c r="K11" t="n">
+        <v>-607.24933905371</v>
       </c>
     </row>
     <row r="12">
@@ -3279,28 +3314,31 @@
         <v>10204</v>
       </c>
       <c r="C12" t="n">
-        <v>16672.9036079754</v>
+        <v>9448.63196282105</v>
       </c>
       <c r="D12" t="n">
-        <v>-800.989537924484</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E12" t="n">
-        <v>-5939.3990477202</v>
+        <v>-800.989537924481</v>
       </c>
       <c r="F12" t="n">
-        <v>63.5002310925003</v>
+        <v>-5939.39904772116</v>
       </c>
       <c r="G12" t="n">
-        <v>62.0615684335582</v>
+        <v>63.5002310925246</v>
       </c>
       <c r="H12" t="n">
-        <v>8.08532248748886</v>
+        <v>62.061568433561</v>
       </c>
       <c r="I12" t="n">
+        <v>8.08532248747522</v>
+      </c>
+      <c r="J12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>-617.530181519976</v>
+      <c r="K12" t="n">
+        <v>-617.530181519506</v>
       </c>
     </row>
     <row r="13">
@@ -3311,28 +3349,31 @@
         <v>13056.04</v>
       </c>
       <c r="C13" t="n">
-        <v>16672.9036079754</v>
+        <v>11288.2469133178</v>
       </c>
       <c r="D13" t="n">
-        <v>939.957311626223</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E13" t="n">
-        <v>-5857.40072184826</v>
+        <v>939.957311626219</v>
       </c>
       <c r="F13" t="n">
-        <v>63.5002310925003</v>
+        <v>-5857.40072184921</v>
       </c>
       <c r="G13" t="n">
-        <v>77.1213910063537</v>
+        <v>63.5002310925246</v>
       </c>
       <c r="H13" t="n">
-        <v>8.7042289347734</v>
+        <v>77.1213910063572</v>
       </c>
       <c r="I13" t="n">
+        <v>8.70422893475871</v>
+      </c>
+      <c r="J13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>-616.539135465938</v>
+      <c r="K13" t="n">
+        <v>-616.539135465468</v>
       </c>
     </row>
     <row r="14">
@@ -3343,28 +3384,31 @@
         <v>10180.06</v>
       </c>
       <c r="C14" t="n">
-        <v>16672.9036079754</v>
+        <v>11142.1162301229</v>
       </c>
       <c r="D14" t="n">
-        <v>833.508230687796</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E14" t="n">
-        <v>-5899.23306228934</v>
+        <v>833.508230687793</v>
       </c>
       <c r="F14" t="n">
-        <v>63.5002310925003</v>
+        <v>-5899.23306229029</v>
       </c>
       <c r="G14" t="n">
-        <v>73.8331026239764</v>
+        <v>63.5002310925246</v>
       </c>
       <c r="H14" t="n">
-        <v>8.7773718755926</v>
+        <v>73.8331026239798</v>
       </c>
       <c r="I14" t="n">
+        <v>8.77737187557778</v>
+      </c>
+      <c r="J14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>-611.173251839798</v>
+      <c r="K14" t="n">
+        <v>-611.173251839333</v>
       </c>
     </row>
     <row r="15">
@@ -3375,28 +3419,31 @@
         <v>10578.11</v>
       </c>
       <c r="C15" t="n">
-        <v>16672.9036079754</v>
+        <v>10243.441867196</v>
       </c>
       <c r="D15" t="n">
-        <v>-113.937701177458</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E15" t="n">
-        <v>-5925.01309942965</v>
+        <v>-113.937701177457</v>
       </c>
       <c r="F15" t="n">
-        <v>59.5764481383014</v>
+        <v>-5925.01309943061</v>
       </c>
       <c r="G15" t="n">
-        <v>128.273071221229</v>
+        <v>59.5764481383242</v>
       </c>
       <c r="H15" t="n">
-        <v>13.6695762185853</v>
+        <v>128.273071221235</v>
       </c>
       <c r="I15" t="n">
+        <v>13.6695762185622</v>
+      </c>
+      <c r="J15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>-592.030035747161</v>
+      <c r="K15" t="n">
+        <v>-592.03003574671</v>
       </c>
     </row>
     <row r="16">
@@ -3407,28 +3454,31 @@
         <v>10967.81</v>
       </c>
       <c r="C16" t="n">
-        <v>16672.9036079754</v>
+        <v>10982.608901827</v>
       </c>
       <c r="D16" t="n">
-        <v>620.77762864821</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E16" t="n">
-        <v>-5924.92205442699</v>
+        <v>620.777628648208</v>
       </c>
       <c r="F16" t="n">
-        <v>59.5764481383014</v>
+        <v>-5924.92205442795</v>
       </c>
       <c r="G16" t="n">
-        <v>138.672829562138</v>
+        <v>59.5764481383242</v>
       </c>
       <c r="H16" t="n">
-        <v>13.4572194978576</v>
+        <v>138.672829562145</v>
       </c>
       <c r="I16" t="n">
+        <v>13.4572194978349</v>
+      </c>
+      <c r="J16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>-597.856777564638</v>
+      <c r="K16" t="n">
+        <v>-597.856777564183</v>
       </c>
     </row>
     <row r="17">
@@ -3439,28 +3489,31 @@
         <v>10795.78</v>
       </c>
       <c r="C17" t="n">
-        <v>16672.9036079754</v>
+        <v>11108.6792885886</v>
       </c>
       <c r="D17" t="n">
-        <v>788.111766688087</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E17" t="n">
-        <v>-5958.06905980314</v>
+        <v>788.111766688084</v>
       </c>
       <c r="F17" t="n">
-        <v>59.5764481383014</v>
+        <v>-5958.0690598041</v>
       </c>
       <c r="G17" t="n">
-        <v>130.808480910634</v>
+        <v>59.5764481383242</v>
       </c>
       <c r="H17" t="n">
-        <v>13.9940240356664</v>
+        <v>130.80848091064</v>
       </c>
       <c r="I17" t="n">
+        <v>13.9940240356428</v>
+      </c>
+      <c r="J17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>-598.645979353071</v>
+      <c r="K17" t="n">
+        <v>-598.645979352615</v>
       </c>
     </row>
     <row r="18">
@@ -3471,28 +3524,31 @@
         <v>10650.19</v>
       </c>
       <c r="C18" t="n">
-        <v>16672.9036079754</v>
+        <v>10781.1867717294</v>
       </c>
       <c r="D18" t="n">
-        <v>455.387067462532</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E18" t="n">
-        <v>-5928.7515373183</v>
+        <v>455.38706746253</v>
       </c>
       <c r="F18" t="n">
-        <v>59.5764481383014</v>
+        <v>-5928.75153731926</v>
       </c>
       <c r="G18" t="n">
-        <v>106.55055942892</v>
+        <v>59.5764481383242</v>
       </c>
       <c r="H18" t="n">
-        <v>13.7667637584258</v>
+        <v>106.550559428925</v>
       </c>
       <c r="I18" t="n">
+        <v>13.7667637584026</v>
+      </c>
+      <c r="J18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>-598.246137712562</v>
+      <c r="K18" t="n">
+        <v>-598.246137712106</v>
       </c>
     </row>
     <row r="19">
@@ -3503,28 +3559,31 @@
         <v>14062.82</v>
       </c>
       <c r="C19" t="n">
-        <v>16672.9036079754</v>
+        <v>14447.5542319686</v>
       </c>
       <c r="D19" t="n">
-        <v>4001.11297191311</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E19" t="n">
-        <v>-5960.45013850735</v>
+        <v>4001.11297191309</v>
       </c>
       <c r="F19" t="n">
-        <v>61.8669670020219</v>
+        <v>-5960.45013850831</v>
       </c>
       <c r="G19" t="n">
-        <v>237.658055852671</v>
+        <v>61.8669670020456</v>
       </c>
       <c r="H19" t="n">
-        <v>7.5601604075008</v>
+        <v>237.658055852682</v>
       </c>
       <c r="I19" t="n">
-        <v>46.6812104831677</v>
+        <v>7.56016040748804</v>
       </c>
       <c r="J19" t="n">
-        <v>-619.778603154663</v>
+        <v>46.6812104831428</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-619.77860315419</v>
       </c>
     </row>
     <row r="20">
@@ -3535,28 +3594,31 @@
         <v>11709.1</v>
       </c>
       <c r="C20" t="n">
-        <v>16672.9036079754</v>
+        <v>10654.3424713438</v>
       </c>
       <c r="D20" t="n">
-        <v>179.396288666649</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E20" t="n">
-        <v>-5900.03068794106</v>
+        <v>179.396288666648</v>
       </c>
       <c r="F20" t="n">
-        <v>61.9001612589428</v>
+        <v>-5900.03068794202</v>
       </c>
       <c r="G20" t="n">
-        <v>225.322309009964</v>
+        <v>61.9001612589665</v>
       </c>
       <c r="H20" t="n">
-        <v>1.09995991675619</v>
+        <v>225.322309009975</v>
       </c>
       <c r="I20" t="n">
-        <v>23.0294313669704</v>
+        <v>1.09995991675434</v>
       </c>
       <c r="J20" t="n">
-        <v>-609.278598906548</v>
+        <v>23.0294313669581</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-609.278598906084</v>
       </c>
     </row>
     <row r="21">
@@ -3567,28 +3629,31 @@
         <v>11729.18</v>
       </c>
       <c r="C21" t="n">
-        <v>16672.9036079754</v>
+        <v>11371.6706244632</v>
       </c>
       <c r="D21" t="n">
-        <v>1061.64146237133</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E21" t="n">
-        <v>-5880.98173886958</v>
+        <v>1061.64146237132</v>
       </c>
       <c r="F21" t="n">
-        <v>61.9001612589428</v>
+        <v>-5880.98173887053</v>
       </c>
       <c r="G21" t="n">
-        <v>70.942581744838</v>
+        <v>61.9001612589665</v>
       </c>
       <c r="H21" t="n">
-        <v>0.116051273393531</v>
+        <v>70.9425817448413</v>
       </c>
       <c r="I21" t="n">
-        <v>2.5365775282355</v>
+        <v>0.116051273393335</v>
       </c>
       <c r="J21" t="n">
-        <v>-617.388078816135</v>
+        <v>2.53657752823415</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-617.388078815664</v>
       </c>
     </row>
     <row r="22">
@@ -3599,28 +3664,31 @@
         <v>12363.61</v>
       </c>
       <c r="C22" t="n">
-        <v>16672.9036079754</v>
+        <v>11489.5385579501</v>
       </c>
       <c r="D22" t="n">
-        <v>957.786457015729</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E22" t="n">
-        <v>-5700.28692777331</v>
+        <v>957.786457015724</v>
       </c>
       <c r="F22" t="n">
-        <v>61.9001612589428</v>
+        <v>-5700.28692777423</v>
       </c>
       <c r="G22" t="n">
-        <v>88.8322355276077</v>
+        <v>61.9001612589665</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0116706496385305</v>
+        <v>88.8322355276118</v>
       </c>
       <c r="I22" t="n">
-        <v>0.256352296948604</v>
+        <v>0.0116706496385108</v>
       </c>
       <c r="J22" t="n">
-        <v>-591.864998997677</v>
+        <v>0.256352296948467</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-591.864998997226</v>
       </c>
     </row>
     <row r="23">
@@ -3631,28 +3699,31 @@
         <v>12549.12</v>
       </c>
       <c r="C23" t="n">
-        <v>16672.9036079754</v>
+        <v>11639.5022970104</v>
       </c>
       <c r="D23" t="n">
-        <v>973.930257575732</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E23" t="n">
-        <v>-5739.46896106908</v>
+        <v>973.930257575728</v>
       </c>
       <c r="F23" t="n">
-        <v>61.5571886730105</v>
+        <v>-5739.46896107001</v>
       </c>
       <c r="G23" t="n">
-        <v>234.117480050081</v>
+        <v>61.5571886730341</v>
       </c>
       <c r="H23" t="n">
-        <v>2.54315644607428</v>
+        <v>234.117480050092</v>
       </c>
       <c r="I23" t="n">
-        <v>17.2847959236478</v>
+        <v>2.54315644606998</v>
       </c>
       <c r="J23" t="n">
-        <v>-583.365228561258</v>
+        <v>17.2847959236385</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-583.365228560813</v>
       </c>
     </row>
     <row r="24">
@@ -3663,28 +3734,31 @@
         <v>11227.84</v>
       </c>
       <c r="C24" t="n">
-        <v>16672.9036079754</v>
+        <v>11292.3843579035</v>
       </c>
       <c r="D24" t="n">
-        <v>615.856011519085</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E24" t="n">
-        <v>-5767.15013474783</v>
+        <v>615.856011519083</v>
       </c>
       <c r="F24" t="n">
-        <v>60.4656926769398</v>
+        <v>-5767.15013474876</v>
       </c>
       <c r="G24" t="n">
-        <v>241.349054875156</v>
+        <v>60.465692676963</v>
       </c>
       <c r="H24" t="n">
-        <v>4.57700060155896</v>
+        <v>241.349054875168</v>
       </c>
       <c r="I24" t="n">
-        <v>39.9567830351905</v>
+        <v>4.57700060155124</v>
       </c>
       <c r="J24" t="n">
-        <v>-575.573658028746</v>
+        <v>39.9567830351691</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-575.573658028308</v>
       </c>
     </row>
     <row r="25">
@@ -3695,28 +3769,31 @@
         <v>11278.97</v>
       </c>
       <c r="C25" t="n">
-        <v>16672.9036079754</v>
+        <v>11427.7668005686</v>
       </c>
       <c r="D25" t="n">
-        <v>651.50327512816</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E25" t="n">
-        <v>-5719.50585963477</v>
+        <v>651.503275128158</v>
       </c>
       <c r="F25" t="n">
-        <v>60.4656926769398</v>
+        <v>-5719.50585963569</v>
       </c>
       <c r="G25" t="n">
-        <v>302.176062951623</v>
+        <v>60.465692676963</v>
       </c>
       <c r="H25" t="n">
-        <v>2.98138587214594</v>
+        <v>302.176062951637</v>
       </c>
       <c r="I25" t="n">
-        <v>31.4809176313443</v>
+        <v>2.98138587214091</v>
       </c>
       <c r="J25" t="n">
-        <v>-574.238282028964</v>
+        <v>31.4809176313275</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-574.238282028527</v>
       </c>
     </row>
     <row r="26">
@@ -3727,28 +3804,31 @@
         <v>11019.38</v>
       </c>
       <c r="C26" t="n">
-        <v>16672.9036079754</v>
+        <v>11185.445704642</v>
       </c>
       <c r="D26" t="n">
-        <v>467.803411186433</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E26" t="n">
-        <v>-5718.56904289995</v>
+        <v>467.803411186431</v>
       </c>
       <c r="F26" t="n">
-        <v>60.4656926769398</v>
+        <v>-5718.56904290087</v>
       </c>
       <c r="G26" t="n">
-        <v>237.861820511783</v>
+        <v>60.465692676963</v>
       </c>
       <c r="H26" t="n">
-        <v>4.15588326627351</v>
+        <v>237.861820511794</v>
       </c>
       <c r="I26" t="n">
-        <v>29.7013959279169</v>
+        <v>4.15588326626649</v>
       </c>
       <c r="J26" t="n">
-        <v>-568.877063999564</v>
+        <v>29.701395927901</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-568.87706399913</v>
       </c>
     </row>
     <row r="27">
@@ -3759,28 +3839,31 @@
         <v>11115.75</v>
       </c>
       <c r="C27" t="n">
-        <v>16672.9036079754</v>
+        <v>10863.0954172567</v>
       </c>
       <c r="D27" t="n">
+        <v>16672.9036079726</v>
+      </c>
+      <c r="E27" t="n">
         <v>204.045239375174</v>
       </c>
-      <c r="E27" t="n">
-        <v>-5754.54184720383</v>
-      </c>
       <c r="F27" t="n">
-        <v>60.4656926769398</v>
+        <v>-5754.54184720476</v>
       </c>
       <c r="G27" t="n">
-        <v>191.23281840689</v>
+        <v>60.465692676963</v>
       </c>
       <c r="H27" t="n">
-        <v>24.1065364500611</v>
+        <v>191.232818406898</v>
       </c>
       <c r="I27" t="n">
-        <v>29.2310291030405</v>
+        <v>24.1065364500204</v>
       </c>
       <c r="J27" t="n">
-        <v>-564.3476595237</v>
+        <v>29.2310291030249</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-564.34765952327</v>
       </c>
     </row>
     <row r="28">
@@ -3791,28 +3874,31 @@
         <v>12955.86</v>
       </c>
       <c r="C28" t="n">
-        <v>16672.9036079754</v>
+        <v>12477.4623202536</v>
       </c>
       <c r="D28" t="n">
+        <v>16672.9036079726</v>
+      </c>
+      <c r="E28" t="n">
         <v>1833.76603478857</v>
       </c>
-      <c r="E28" t="n">
-        <v>-5750.78308050463</v>
-      </c>
       <c r="F28" t="n">
-        <v>59.9987490364829</v>
+        <v>-5750.78308050556</v>
       </c>
       <c r="G28" t="n">
-        <v>165.493704710544</v>
+        <v>59.9987490365059</v>
       </c>
       <c r="H28" t="n">
-        <v>15.1745128039561</v>
+        <v>165.493704710552</v>
       </c>
       <c r="I28" t="n">
-        <v>29.4452553996094</v>
+        <v>15.1745128039305</v>
       </c>
       <c r="J28" t="n">
-        <v>-548.536463953066</v>
+        <v>29.4452553995936</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-548.536463952648</v>
       </c>
     </row>
     <row r="29">
@@ -3823,28 +3909,31 @@
         <v>9421.22</v>
       </c>
       <c r="C29" t="n">
-        <v>16672.9036079754</v>
+        <v>9332.62181846944</v>
       </c>
       <c r="D29" t="n">
-        <v>-1155.6451250976</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E29" t="n">
-        <v>-5884.91157235252</v>
+        <v>-1155.64512509759</v>
       </c>
       <c r="F29" t="n">
-        <v>63.5654334596335</v>
+        <v>-5884.91157235347</v>
       </c>
       <c r="G29" t="n">
-        <v>162.441692474715</v>
+        <v>63.5654334596579</v>
       </c>
       <c r="H29" t="n">
-        <v>12.1883621973092</v>
+        <v>162.441692474723</v>
       </c>
       <c r="I29" t="n">
-        <v>8.30713754409222</v>
+        <v>12.1883621972886</v>
       </c>
       <c r="J29" t="n">
-        <v>-546.2277177283</v>
+        <v>8.30713754408778</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-546.227717727884</v>
       </c>
     </row>
     <row r="30">
@@ -3855,28 +3944,31 @@
         <v>10037.4</v>
       </c>
       <c r="C30" t="n">
-        <v>16672.9036079754</v>
+        <v>9788.13501100222</v>
       </c>
       <c r="D30" t="n">
-        <v>-719.797562788531</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E30" t="n">
-        <v>-5813.67649285417</v>
+        <v>-719.797562788528</v>
       </c>
       <c r="F30" t="n">
-        <v>63.5654334596335</v>
+        <v>-5813.67649285511</v>
       </c>
       <c r="G30" t="n">
-        <v>128.520854273116</v>
+        <v>63.5654334596579</v>
       </c>
       <c r="H30" t="n">
-        <v>2.23821649360415</v>
+        <v>128.520854273122</v>
       </c>
       <c r="I30" t="n">
-        <v>0.860027944762647</v>
+        <v>2.23821649360037</v>
       </c>
       <c r="J30" t="n">
-        <v>-546.479073498328</v>
+        <v>0.860027944762187</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-546.479073497912</v>
       </c>
     </row>
     <row r="31">
@@ -3887,28 +3979,31 @@
         <v>9691.71</v>
       </c>
       <c r="C31" t="n">
-        <v>16672.9036079754</v>
+        <v>9662.20438488181</v>
       </c>
       <c r="D31" t="n">
-        <v>-820.413918856315</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E31" t="n">
-        <v>-5944.74937386003</v>
+        <v>-820.413918856312</v>
       </c>
       <c r="F31" t="n">
-        <v>63.5654334596335</v>
+        <v>-5944.74937386099</v>
       </c>
       <c r="G31" t="n">
-        <v>243.750442507075</v>
+        <v>63.5654334596579</v>
       </c>
       <c r="H31" t="n">
-        <v>0.254737264693906</v>
+        <v>243.750442507086</v>
       </c>
       <c r="I31" t="n">
-        <v>0.086311268007848</v>
+        <v>0.254737264693476</v>
       </c>
       <c r="J31" t="n">
-        <v>-553.192854873382</v>
+        <v>0.0863112680078019</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-553.192854872961</v>
       </c>
     </row>
     <row r="32">
@@ -3919,28 +4014,31 @@
         <v>9827.3</v>
       </c>
       <c r="C32" t="n">
-        <v>16672.9036079754</v>
+        <v>9936.67833782133</v>
       </c>
       <c r="D32" t="n">
-        <v>-681.918642783077</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E32" t="n">
-        <v>-5831.20813867609</v>
+        <v>-681.918642783074</v>
       </c>
       <c r="F32" t="n">
-        <v>64.8383045121839</v>
+        <v>-5831.20813867703</v>
       </c>
       <c r="G32" t="n">
-        <v>189.542962020406</v>
+        <v>64.8383045122087</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0638257358456846</v>
+        <v>189.542962020415</v>
       </c>
       <c r="I32" t="n">
-        <v>69.2363029486342</v>
+        <v>0.0638257358455769</v>
       </c>
       <c r="J32" t="n">
-        <v>-546.779883908677</v>
+        <v>69.2363029485972</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-546.779883908261</v>
       </c>
     </row>
     <row r="33">
@@ -3951,28 +4049,31 @@
         <v>9700.86</v>
       </c>
       <c r="C33" t="n">
-        <v>16672.9036079754</v>
+        <v>9845.33109009817</v>
       </c>
       <c r="D33" t="n">
-        <v>-567.799528632086</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E33" t="n">
-        <v>-5973.41668860813</v>
+        <v>-567.799528632084</v>
       </c>
       <c r="F33" t="n">
-        <v>66.1149996388964</v>
+        <v>-5973.4166886091</v>
       </c>
       <c r="G33" t="n">
-        <v>139.280243800327</v>
+        <v>66.1149996389217</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0719556025278967</v>
+        <v>139.280243800334</v>
       </c>
       <c r="I33" t="n">
-        <v>60.8162805621504</v>
+        <v>0.0719556025277753</v>
       </c>
       <c r="J33" t="n">
-        <v>-552.639780237605</v>
+        <v>60.8162805621179</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-552.639780237184</v>
       </c>
     </row>
     <row r="34">
@@ -3983,28 +4084,31 @@
         <v>9295.21</v>
       </c>
       <c r="C34" t="n">
-        <v>16672.9036079754</v>
+        <v>9468.8074889544</v>
       </c>
       <c r="D34" t="n">
-        <v>-875.641502871984</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E34" t="n">
-        <v>-5948.70436437695</v>
+        <v>-875.641502871981</v>
       </c>
       <c r="F34" t="n">
-        <v>66.1149996388964</v>
+        <v>-5948.70436437791</v>
       </c>
       <c r="G34" t="n">
-        <v>99.7891656267443</v>
+        <v>66.1149996389217</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0737410661488634</v>
+        <v>99.7891656267489</v>
       </c>
       <c r="I34" t="n">
-        <v>7.86977196596604</v>
+        <v>0.0737410661487389</v>
       </c>
       <c r="J34" t="n">
-        <v>-553.597930066532</v>
+        <v>7.86977196596184</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-553.59793006611</v>
       </c>
     </row>
     <row r="35">
@@ -4015,28 +4119,31 @@
         <v>9564.86</v>
       </c>
       <c r="C35" t="n">
-        <v>16672.9036079754</v>
+        <v>9930.53609591645</v>
       </c>
       <c r="D35" t="n">
-        <v>-543.555360300488</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E35" t="n">
-        <v>-5932.80974289347</v>
+        <v>-543.555360300486</v>
       </c>
       <c r="F35" t="n">
-        <v>66.1149996388964</v>
+        <v>-5932.80974289442</v>
       </c>
       <c r="G35" t="n">
-        <v>179.484737789498</v>
+        <v>66.1149996389217</v>
       </c>
       <c r="H35" t="n">
-        <v>4.33709854482706</v>
+        <v>179.484737789506</v>
       </c>
       <c r="I35" t="n">
-        <v>41.1646640010105</v>
+        <v>4.33709854481974</v>
       </c>
       <c r="J35" t="n">
-        <v>-557.103908835925</v>
+        <v>41.1646640009885</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-557.103908835501</v>
       </c>
     </row>
     <row r="36">
@@ -4047,28 +4154,31 @@
         <v>10975.28</v>
       </c>
       <c r="C36" t="n">
-        <v>16672.9036079754</v>
+        <v>10960.9907954675</v>
       </c>
       <c r="D36" t="n">
-        <v>508.574557936811</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E36" t="n">
-        <v>-5929.07377148338</v>
+        <v>508.574557936809</v>
       </c>
       <c r="F36" t="n">
-        <v>65.6562837912608</v>
+        <v>-5929.07377148433</v>
       </c>
       <c r="G36" t="n">
-        <v>172.936566736795</v>
+        <v>65.656283791286</v>
       </c>
       <c r="H36" t="n">
-        <v>9.0756992750396</v>
+        <v>172.936566736803</v>
       </c>
       <c r="I36" t="n">
-        <v>29.20231046076</v>
+        <v>9.07569927502429</v>
       </c>
       <c r="J36" t="n">
-        <v>-568.284459221903</v>
+        <v>29.2023104607444</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-568.28445922147</v>
       </c>
     </row>
     <row r="37">
@@ -4079,28 +4189,31 @@
         <v>9407.01</v>
       </c>
       <c r="C37" t="n">
-        <v>16672.9036079754</v>
+        <v>9643.00929105891</v>
       </c>
       <c r="D37" t="n">
-        <v>-766.338087041541</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E37" t="n">
-        <v>-5980.7267445531</v>
+        <v>-766.338087041538</v>
       </c>
       <c r="F37" t="n">
-        <v>66.2855891489284</v>
+        <v>-5980.72674455407</v>
       </c>
       <c r="G37" t="n">
-        <v>196.174362299582</v>
+        <v>66.2855891489538</v>
       </c>
       <c r="H37" t="n">
-        <v>8.27874618881407</v>
+        <v>196.174362299592</v>
       </c>
       <c r="I37" t="n">
-        <v>22.011263564327</v>
+        <v>8.2787461888001</v>
       </c>
       <c r="J37" t="n">
-        <v>-575.579446520207</v>
+        <v>22.0112635643152</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-575.579446519768</v>
       </c>
     </row>
     <row r="38">
@@ -4111,28 +4224,31 @@
         <v>9636.6</v>
       </c>
       <c r="C38" t="n">
-        <v>16672.9036079754</v>
+        <v>9830.75669232032</v>
       </c>
       <c r="D38" t="n">
-        <v>-620.467462173159</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E38" t="n">
-        <v>-5932.13379685073</v>
+        <v>-620.467462173157</v>
       </c>
       <c r="F38" t="n">
-        <v>66.2855891489284</v>
+        <v>-5932.13379685169</v>
       </c>
       <c r="G38" t="n">
-        <v>170.794389315708</v>
+        <v>66.2855891489538</v>
       </c>
       <c r="H38" t="n">
-        <v>7.39651714377781</v>
+        <v>170.794389315716</v>
       </c>
       <c r="I38" t="n">
-        <v>42.8923023797915</v>
+        <v>7.39651714376533</v>
       </c>
       <c r="J38" t="n">
-        <v>-576.914454616105</v>
+        <v>42.8923023797686</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-576.914454615665</v>
       </c>
     </row>
     <row r="39">
@@ -4143,28 +4259,31 @@
         <v>10647.88</v>
       </c>
       <c r="C39" t="n">
-        <v>16672.9036079754</v>
+        <v>10239.7945674859</v>
       </c>
       <c r="D39" t="n">
-        <v>-176.787389711514</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E39" t="n">
-        <v>-6013.73593609426</v>
+        <v>-176.787389711513</v>
       </c>
       <c r="F39" t="n">
-        <v>66.2855891489284</v>
+        <v>-6013.73593609523</v>
       </c>
       <c r="G39" t="n">
-        <v>206.387869879042</v>
+        <v>66.2855891489538</v>
       </c>
       <c r="H39" t="n">
-        <v>7.4874689110214</v>
+        <v>206.387869879051</v>
       </c>
       <c r="I39" t="n">
-        <v>56.0556021865019</v>
+        <v>7.48746891100877</v>
       </c>
       <c r="J39" t="n">
-        <v>-578.802244805958</v>
+        <v>56.0556021864719</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-578.802244805517</v>
       </c>
     </row>
     <row r="40">
@@ -4175,28 +4294,31 @@
         <v>12848.32</v>
       </c>
       <c r="C40" t="n">
-        <v>16672.9036079754</v>
+        <v>12722.5201579404</v>
       </c>
       <c r="D40" t="n">
-        <v>2239.47265060139</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E40" t="n">
-        <v>-5984.64506256607</v>
+        <v>2239.47265060138</v>
       </c>
       <c r="F40" t="n">
-        <v>66.2855891489284</v>
+        <v>-5984.64506256704</v>
       </c>
       <c r="G40" t="n">
-        <v>271.10403491803</v>
+        <v>66.2855891489538</v>
       </c>
       <c r="H40" t="n">
-        <v>9.19733791100708</v>
+        <v>271.104034918043</v>
       </c>
       <c r="I40" t="n">
-        <v>28.4081221345214</v>
+        <v>9.19733791099156</v>
       </c>
       <c r="J40" t="n">
-        <v>-580.206122179531</v>
+        <v>28.4081221345062</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-580.206122179089</v>
       </c>
     </row>
     <row r="41">
@@ -4207,28 +4329,31 @@
         <v>10610.61</v>
       </c>
       <c r="C41" t="n">
-        <v>16672.9036079754</v>
+        <v>10477.233888463</v>
       </c>
       <c r="D41" t="n">
-        <v>-239.281754631538</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E41" t="n">
-        <v>-5778.03664744591</v>
+        <v>-239.281754631537</v>
       </c>
       <c r="F41" t="n">
-        <v>64.1475598105289</v>
+        <v>-5778.03664744685</v>
       </c>
       <c r="G41" t="n">
-        <v>272.70140968142</v>
+        <v>64.1475598105535</v>
       </c>
       <c r="H41" t="n">
-        <v>10.5665268930799</v>
+        <v>272.701409681432</v>
       </c>
       <c r="I41" t="n">
-        <v>49.5249072024392</v>
+        <v>10.566526893062</v>
       </c>
       <c r="J41" t="n">
-        <v>-575.291721019125</v>
+        <v>49.5249072024127</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-575.291721018687</v>
       </c>
     </row>
     <row r="42">
@@ -4239,28 +4364,31 @@
         <v>11420.47</v>
       </c>
       <c r="C42" t="n">
-        <v>16672.9036079754</v>
+        <v>11236.4381377989</v>
       </c>
       <c r="D42" t="n">
-        <v>724.471948221603</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E42" t="n">
-        <v>-5852.56761259691</v>
+        <v>724.4719482216</v>
       </c>
       <c r="F42" t="n">
-        <v>64.2453694988673</v>
+        <v>-5852.56761259785</v>
       </c>
       <c r="G42" t="n">
-        <v>161.702344633257</v>
+        <v>64.245369498892</v>
       </c>
       <c r="H42" t="n">
-        <v>7.72814843356097</v>
+        <v>161.702344633264</v>
       </c>
       <c r="I42" t="n">
-        <v>26.725294759329</v>
+        <v>7.72814843354793</v>
       </c>
       <c r="J42" t="n">
-        <v>-568.770963122892</v>
+        <v>26.7252947593147</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-568.770963122459</v>
       </c>
     </row>
     <row r="43">
@@ -4271,28 +4399,31 @@
         <v>13457.96</v>
       </c>
       <c r="C43" t="n">
-        <v>16672.9036079754</v>
+        <v>13262.5718145565</v>
       </c>
       <c r="D43" t="n">
-        <v>2747.68136478625</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E43" t="n">
-        <v>-5948.90270381535</v>
+        <v>2747.68136478624</v>
       </c>
       <c r="F43" t="n">
-        <v>64.2453694988673</v>
+        <v>-5948.90270381631</v>
       </c>
       <c r="G43" t="n">
-        <v>220.26249026611</v>
+        <v>64.245369498892</v>
       </c>
       <c r="H43" t="n">
-        <v>11.4662111573692</v>
+        <v>220.26249026612</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0691214828408</v>
+        <v>11.4662111573499</v>
       </c>
       <c r="J43" t="n">
-        <v>-550.153646791635</v>
+        <v>45.0691214828168</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-550.153646791216</v>
       </c>
     </row>
     <row r="44">
@@ -4303,28 +4434,31 @@
         <v>17008.97</v>
       </c>
       <c r="C44" t="n">
-        <v>16672.9036079754</v>
+        <v>18385.4845015858</v>
       </c>
       <c r="D44" t="n">
-        <v>7780.59586386799</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E44" t="n">
-        <v>-5964.73176200461</v>
+        <v>7780.59586386796</v>
       </c>
       <c r="F44" t="n">
-        <v>64.2453694988673</v>
+        <v>-5964.73176200558</v>
       </c>
       <c r="G44" t="n">
-        <v>326.950884889348</v>
+        <v>64.245369498892</v>
       </c>
       <c r="H44" t="n">
-        <v>10.23733485689</v>
+        <v>326.950884889363</v>
       </c>
       <c r="I44" t="n">
-        <v>40.2910955130136</v>
+        <v>10.2373348568727</v>
       </c>
       <c r="J44" t="n">
-        <v>-545.007893007747</v>
+        <v>40.291095512992</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-545.007893007332</v>
       </c>
     </row>
     <row r="45">
@@ -4335,28 +4469,31 @@
         <v>14133.13</v>
       </c>
       <c r="C45" t="n">
-        <v>16672.9036079754</v>
+        <v>14325.4835215738</v>
       </c>
       <c r="D45" t="n">
-        <v>3825.80377199248</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E45" t="n">
-        <v>-5938.01806585044</v>
+        <v>3825.80377199247</v>
       </c>
       <c r="F45" t="n">
-        <v>63.4052495688306</v>
+        <v>-5938.0180658514</v>
       </c>
       <c r="G45" t="n">
-        <v>241.413164546902</v>
+        <v>63.4052495688549</v>
       </c>
       <c r="H45" t="n">
-        <v>8.48636087545212</v>
+        <v>241.413164546913</v>
       </c>
       <c r="I45" t="n">
-        <v>4.77537113507691</v>
+        <v>8.4863608754378</v>
       </c>
       <c r="J45" t="n">
-        <v>-553.285938666642</v>
+        <v>4.77537113507436</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-553.285938666221</v>
       </c>
     </row>
     <row r="46">
@@ -4367,28 +4504,31 @@
         <v>8465.43</v>
       </c>
       <c r="C46" t="n">
-        <v>16672.9036079754</v>
+        <v>7793.28724188249</v>
       </c>
       <c r="D46" t="n">
-        <v>-2804.15239737729</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E46" t="n">
-        <v>-5706.08950972616</v>
+        <v>-2804.15239737727</v>
       </c>
       <c r="F46" t="n">
-        <v>60.6338702133522</v>
+        <v>-5706.08950972708</v>
       </c>
       <c r="G46" t="n">
-        <v>50.8262139037785</v>
+        <v>60.6338702133755</v>
       </c>
       <c r="H46" t="n">
-        <v>1.29416646000725</v>
+        <v>50.8262139037809</v>
       </c>
       <c r="I46" t="n">
-        <v>0.487140019577866</v>
+        <v>1.29416646000507</v>
       </c>
       <c r="J46" t="n">
-        <v>-482.61584958289</v>
+        <v>0.487140019577605</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-482.615849582522</v>
       </c>
     </row>
     <row r="47">
@@ -4399,28 +4539,31 @@
         <v>9497.52</v>
       </c>
       <c r="C47" t="n">
-        <v>16672.9036079754</v>
+        <v>8873.26647406739</v>
       </c>
       <c r="D47" t="n">
-        <v>-1787.78842344198</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E47" t="n">
-        <v>-5605.39335450141</v>
+        <v>-1787.78842344197</v>
       </c>
       <c r="F47" t="n">
-        <v>60.6338702133522</v>
+        <v>-5605.39335450231</v>
       </c>
       <c r="G47" t="n">
-        <v>5.94019999057678</v>
+        <v>60.6338702133755</v>
       </c>
       <c r="H47" t="n">
-        <v>0.138336343450569</v>
+        <v>5.94019999057705</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0488128802514985</v>
+        <v>0.138336343450336</v>
       </c>
       <c r="J47" t="n">
-        <v>-473.216575388972</v>
+        <v>0.0488128802514724</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-473.216575388612</v>
       </c>
     </row>
     <row r="48">
@@ -4431,28 +4574,31 @@
         <v>9326.94</v>
       </c>
       <c r="C48" t="n">
-        <v>16672.9036079754</v>
+        <v>8755.6999977775</v>
       </c>
       <c r="D48" t="n">
-        <v>-1921.10806674503</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E48" t="n">
-        <v>-5661.71728811303</v>
+        <v>-1921.10806674502</v>
       </c>
       <c r="F48" t="n">
-        <v>60.6338702133522</v>
+        <v>-5661.71728811395</v>
       </c>
       <c r="G48" t="n">
-        <v>74.6667739266742</v>
+        <v>60.6338702133755</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0143554590971273</v>
+        <v>74.6667739266777</v>
       </c>
       <c r="I48" t="n">
-        <v>0.00488227975346881</v>
+        <v>0.0143554590971031</v>
       </c>
       <c r="J48" t="n">
-        <v>-469.698137215425</v>
+        <v>0.0048822797534662</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-469.698137215067</v>
       </c>
     </row>
     <row r="49">
@@ -4463,28 +4609,31 @@
         <v>9600.68</v>
       </c>
       <c r="C49" t="n">
-        <v>16672.9036079754</v>
+        <v>9323.42137582018</v>
       </c>
       <c r="D49" t="n">
-        <v>-1449.54181614701</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E49" t="n">
-        <v>-5497.45092091637</v>
+        <v>-1449.541816147</v>
       </c>
       <c r="F49" t="n">
-        <v>60.6338702133522</v>
+        <v>-5497.45092091726</v>
       </c>
       <c r="G49" t="n">
-        <v>9.39818657296349</v>
+        <v>60.6338702133755</v>
       </c>
       <c r="H49" t="n">
-        <v>0.00182570154194847</v>
+        <v>9.39818657296392</v>
       </c>
       <c r="I49" t="n">
-        <v>0.00048823789559267</v>
+        <v>0.00182570154194539</v>
       </c>
       <c r="J49" t="n">
-        <v>-472.523865814325</v>
+        <v>0.000488237895592409</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-472.523865813965</v>
       </c>
     </row>
     <row r="50">
@@ -4495,28 +4644,31 @@
         <v>10610.25</v>
       </c>
       <c r="C50" t="n">
-        <v>16672.9036079754</v>
+        <v>9596.0234260798</v>
       </c>
       <c r="D50" t="n">
+        <v>16672.9036079726</v>
+      </c>
+      <c r="E50" t="n">
         <v>-1231.19974316286</v>
       </c>
-      <c r="E50" t="n">
-        <v>-5626.22327390425</v>
-      </c>
       <c r="F50" t="n">
-        <v>60.0870668150982</v>
+        <v>-5626.22327390516</v>
       </c>
       <c r="G50" t="n">
-        <v>209.472264500832</v>
+        <v>60.0870668151213</v>
       </c>
       <c r="H50" t="n">
-        <v>0.000636939770475792</v>
+        <v>209.472264500842</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0000488238887646092</v>
+        <v>0.000636939770474717</v>
       </c>
       <c r="J50" t="n">
-        <v>-489.017181904805</v>
+        <v>0.0000488238887645831</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-489.017181904432</v>
       </c>
     </row>
     <row r="51">
@@ -4527,28 +4679,31 @@
         <v>9655.37</v>
       </c>
       <c r="C51" t="n">
-        <v>16672.9036079754</v>
+        <v>9068.08771717203</v>
       </c>
       <c r="D51" t="n">
-        <v>-1556.85815152294</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E51" t="n">
-        <v>-5823.59698906275</v>
+        <v>-1556.85815152293</v>
       </c>
       <c r="F51" t="n">
-        <v>60.0870668150982</v>
+        <v>-5823.59698906369</v>
       </c>
       <c r="G51" t="n">
-        <v>205.421752094408</v>
+        <v>60.0870668151213</v>
       </c>
       <c r="H51" t="n">
-        <v>0.000437875786052202</v>
+        <v>205.421752094418</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0000048823898685173</v>
+        <v>0.000437875786051463</v>
       </c>
       <c r="J51" t="n">
-        <v>-489.870011882065</v>
+        <v>0.00000488238986851469</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-489.870011881692</v>
       </c>
     </row>
     <row r="52">
@@ -4559,28 +4714,31 @@
         <v>9232.26</v>
       </c>
       <c r="C52" t="n">
-        <v>16672.9036079754</v>
+        <v>8908.96238223122</v>
       </c>
       <c r="D52" t="n">
+        <v>16672.9036079726</v>
+      </c>
+      <c r="E52" t="n">
         <v>-1601.37960011708</v>
       </c>
-      <c r="E52" t="n">
-        <v>-5805.7936745046</v>
-      </c>
       <c r="F52" t="n">
-        <v>60.0870668150982</v>
+        <v>-5805.79367450554</v>
       </c>
       <c r="G52" t="n">
-        <v>72.3514212846608</v>
+        <v>60.0870668151213</v>
       </c>
       <c r="H52" t="n">
-        <v>0.000434673294038104</v>
+        <v>72.3514212846641</v>
       </c>
       <c r="I52" t="n">
-        <v>0.000000488238991970418</v>
+        <v>0.000434673294037371</v>
       </c>
       <c r="J52" t="n">
-        <v>-489.206874380491</v>
+        <v>0.000000488238991970158</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-489.206874380118</v>
       </c>
     </row>
     <row r="53">
@@ -4591,28 +4749,31 @@
         <v>9427.94</v>
       </c>
       <c r="C53" t="n">
-        <v>16672.9036079754</v>
+        <v>9102.51078689197</v>
       </c>
       <c r="D53" t="n">
-        <v>-1357.04919012854</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E53" t="n">
-        <v>-5835.21468435528</v>
+        <v>-1357.04919012853</v>
       </c>
       <c r="F53" t="n">
-        <v>60.0870668150982</v>
+        <v>-5835.21468435623</v>
       </c>
       <c r="G53" t="n">
-        <v>59.9247647971408</v>
+        <v>60.0870668151213</v>
       </c>
       <c r="H53" t="n">
-        <v>0.000434353044775914</v>
+        <v>59.9247647971435</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0000000488238920934297</v>
+        <v>0.000434353044775181</v>
       </c>
       <c r="J53" t="n">
-        <v>-498.141212610414</v>
+        <v>0.0000000488238920934037</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-498.141212610034</v>
       </c>
     </row>
     <row r="54">
@@ -4623,28 +4784,31 @@
         <v>8968.22</v>
       </c>
       <c r="C54" t="n">
-        <v>16672.9036079754</v>
+        <v>8933.80659857657</v>
       </c>
       <c r="D54" t="n">
-        <v>-1517.46634237704</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E54" t="n">
-        <v>-5863.25633570851</v>
+        <v>-1517.46634237703</v>
       </c>
       <c r="F54" t="n">
-        <v>61.8364740603107</v>
+        <v>-5863.25633570945</v>
       </c>
       <c r="G54" t="n">
-        <v>85.7795035999872</v>
+        <v>61.8364740603344</v>
       </c>
       <c r="H54" t="n">
-        <v>0.000415946462097872</v>
+        <v>85.7795035999911</v>
       </c>
       <c r="I54" t="n">
-        <v>0.00000000488238200751726</v>
+        <v>0.00041594646209717</v>
       </c>
       <c r="J54" t="n">
-        <v>-505.990724921631</v>
+        <v>0.00000000488238200751465</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-505.990724921245</v>
       </c>
     </row>
     <row r="55">
@@ -4655,28 +4819,31 @@
         <v>8965.64</v>
       </c>
       <c r="C55" t="n">
-        <v>16672.9036079754</v>
+        <v>8914.0781927496</v>
       </c>
       <c r="D55" t="n">
-        <v>-1546.15756764764</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E55" t="n">
-        <v>-5845.13270361193</v>
+        <v>-1546.15756764763</v>
       </c>
       <c r="F55" t="n">
-        <v>61.8364740603107</v>
+        <v>-5845.13270361288</v>
       </c>
       <c r="G55" t="n">
-        <v>77.6831577516334</v>
+        <v>61.8364740603344</v>
       </c>
       <c r="H55" t="n">
-        <v>0.000312209846552812</v>
+        <v>77.6831577516369</v>
       </c>
       <c r="I55" t="n">
-        <v>0.000000000488230997943875</v>
+        <v>0.000312209846552285</v>
       </c>
       <c r="J55" t="n">
-        <v>-507.055087985213</v>
+        <v>0.000000000488230997943614</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-507.055087984827</v>
       </c>
     </row>
     <row r="56">
@@ -4687,28 +4854,31 @@
         <v>9167.48</v>
       </c>
       <c r="C56" t="n">
-        <v>16672.9036079754</v>
+        <v>9173.56143719623</v>
       </c>
       <c r="D56" t="n">
-        <v>-1338.60500565875</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E56" t="n">
-        <v>-5937.07647325904</v>
+        <v>-1338.60500565874</v>
       </c>
       <c r="F56" t="n">
-        <v>61.8364740603107</v>
+        <v>-5937.07647326</v>
       </c>
       <c r="G56" t="n">
-        <v>232.496756726806</v>
+        <v>61.8364740603344</v>
       </c>
       <c r="H56" t="n">
-        <v>0.000311858735013218</v>
+        <v>232.496756726816</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0000000000488351044907725</v>
+        <v>0.000311858735012691</v>
       </c>
       <c r="J56" t="n">
-        <v>-517.994234503986</v>
+        <v>0.0000000000488351044907464</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-517.994234503591</v>
       </c>
     </row>
     <row r="57">
@@ -4719,28 +4889,31 @@
         <v>9399.99</v>
       </c>
       <c r="C57" t="n">
-        <v>16672.9036079754</v>
+        <v>9249.1239567958</v>
       </c>
       <c r="D57" t="n">
-        <v>-1314.49256288832</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E57" t="n">
-        <v>-5885.66127186457</v>
+        <v>-1314.49256288831</v>
       </c>
       <c r="F57" t="n">
-        <v>61.8364740603107</v>
+        <v>-5885.66127186552</v>
       </c>
       <c r="G57" t="n">
-        <v>236.811155820379</v>
+        <v>61.8364740603344</v>
       </c>
       <c r="H57" t="n">
-        <v>0.000293448823570296</v>
+        <v>236.81115582039</v>
       </c>
       <c r="I57" t="n">
-        <v>0.00000000000487390669204958</v>
+        <v>0.000293448823569801</v>
       </c>
       <c r="J57" t="n">
-        <v>-522.273739752945</v>
+        <v>0.00000000000487390669204697</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-522.273739752547</v>
       </c>
     </row>
     <row r="58">
@@ -4751,28 +4924,31 @@
         <v>8840.15</v>
       </c>
       <c r="C58" t="n">
-        <v>16672.9036079754</v>
+        <v>9346.81570041323</v>
       </c>
       <c r="D58" t="n">
+        <v>16672.9036079726</v>
+      </c>
+      <c r="E58" t="n">
         <v>-1066.0441629238</v>
       </c>
-      <c r="E58" t="n">
-        <v>-6036.02054370602</v>
-      </c>
       <c r="F58" t="n">
-        <v>68.6204831982536</v>
+        <v>-6036.02054370699</v>
       </c>
       <c r="G58" t="n">
-        <v>238.721449534303</v>
+        <v>68.6204831982799</v>
       </c>
       <c r="H58" t="n">
-        <v>0.000313323503883028</v>
+        <v>238.721449534314</v>
       </c>
       <c r="I58" t="n">
-        <v>0.000000000000480187851433466</v>
+        <v>0.000313323503882499</v>
       </c>
       <c r="J58" t="n">
-        <v>-531.365446985113</v>
+        <v>0.000000000000480187851433209</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-531.365446984708</v>
       </c>
     </row>
     <row r="59">
@@ -4783,28 +4959,31 @@
         <v>8501.06</v>
       </c>
       <c r="C59" t="n">
-        <v>16672.9036079754</v>
+        <v>9084.15404450329</v>
       </c>
       <c r="D59" t="n">
-        <v>-1198.50166045425</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E59" t="n">
-        <v>-6015.38609927495</v>
+        <v>-1198.50166045424</v>
       </c>
       <c r="F59" t="n">
-        <v>69.5518355309352</v>
+        <v>-6015.38609927593</v>
       </c>
       <c r="G59" t="n">
-        <v>95.2802044539501</v>
+        <v>69.5518355309618</v>
       </c>
       <c r="H59" t="n">
-        <v>0.000293595300759074</v>
+        <v>95.2802044539545</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0000000000000480187851433467</v>
+        <v>0.000293595300758579</v>
       </c>
       <c r="J59" t="n">
-        <v>-539.694137319796</v>
+        <v>0.000000000000048018785143321</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-539.694137319385</v>
       </c>
     </row>
     <row r="60">
@@ -4815,28 +4994,31 @@
         <v>8769.78</v>
       </c>
       <c r="C60" t="n">
-        <v>16672.9036079754</v>
+        <v>9270.85241684407</v>
       </c>
       <c r="D60" t="n">
-        <v>-840.160082407785</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E60" t="n">
-        <v>-6162.20245009302</v>
+        <v>-840.160082407781</v>
       </c>
       <c r="F60" t="n">
-        <v>69.5518355309352</v>
+        <v>-6162.20245009401</v>
       </c>
       <c r="G60" t="n">
-        <v>75.7942425345077</v>
+        <v>69.5518355309618</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0002983042292237</v>
+        <v>75.7942425345112</v>
       </c>
       <c r="I60" t="n">
+        <v>0.000298304229223196</v>
+      </c>
+      <c r="J60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>-545.035034996881</v>
+      <c r="K60" t="n">
+        <v>-545.035034996465</v>
       </c>
     </row>
     <row r="61">
@@ -4847,28 +5029,31 @@
         <v>8650.31</v>
       </c>
       <c r="C61" t="n">
-        <v>16672.9036079754</v>
+        <v>9309.486340178</v>
       </c>
       <c r="D61" t="n">
-        <v>-861.671755760434</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E61" t="n">
-        <v>-6105.3550155711</v>
+        <v>-861.67175576043</v>
       </c>
       <c r="F61" t="n">
-        <v>69.5518355309352</v>
+        <v>-6105.35501557208</v>
       </c>
       <c r="G61" t="n">
-        <v>92.616705122636</v>
+        <v>69.5518355309618</v>
       </c>
       <c r="H61" t="n">
-        <v>6.47740835922625</v>
+        <v>92.6167051226402</v>
       </c>
       <c r="I61" t="n">
+        <v>6.47740835921532</v>
+      </c>
+      <c r="J61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>-565.036445475363</v>
+      <c r="K61" t="n">
+        <v>-565.036445474933</v>
       </c>
     </row>
     <row r="62">
@@ -4879,28 +5064,31 @@
         <v>8788.01</v>
       </c>
       <c r="C62" t="n">
-        <v>16672.9036079754</v>
+        <v>9790.96738004793</v>
       </c>
       <c r="D62" t="n">
-        <v>-447.098815243389</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E62" t="n">
-        <v>-6045.8059596291</v>
+        <v>-447.098815243387</v>
       </c>
       <c r="F62" t="n">
-        <v>69.5518355309352</v>
+        <v>-6045.80595963007</v>
       </c>
       <c r="G62" t="n">
-        <v>171.06098661194</v>
+        <v>69.5518355309618</v>
       </c>
       <c r="H62" t="n">
-        <v>9.566407520895</v>
+        <v>171.060986611948</v>
       </c>
       <c r="I62" t="n">
+        <v>9.56640752087885</v>
+      </c>
+      <c r="J62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>-639.210682715515</v>
+      <c r="K62" t="n">
+        <v>-639.210682715028</v>
       </c>
     </row>
     <row r="63">
@@ -4911,28 +5099,31 @@
         <v>10115.08</v>
       </c>
       <c r="C63" t="n">
-        <v>16672.9036079754</v>
+        <v>9767.75804547731</v>
       </c>
       <c r="D63" t="n">
-        <v>-572.301902407772</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E63" t="n">
-        <v>-5817.90868204653</v>
+        <v>-572.30190240777</v>
       </c>
       <c r="F63" t="n">
-        <v>67.9425553351832</v>
+        <v>-5817.90868204747</v>
       </c>
       <c r="G63" t="n">
-        <v>67.4273318840431</v>
+        <v>67.9425553352092</v>
       </c>
       <c r="H63" t="n">
-        <v>14.0174868720408</v>
+        <v>67.4273318840462</v>
       </c>
       <c r="I63" t="n">
+        <v>14.0174868720172</v>
+      </c>
+      <c r="J63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>-664.322352131859</v>
+      <c r="K63" t="n">
+        <v>-664.322352131353</v>
       </c>
     </row>
     <row r="64">
@@ -4943,28 +5134,31 @@
         <v>9652.56</v>
       </c>
       <c r="C64" t="n">
-        <v>16672.9036079754</v>
+        <v>9533.58151621079</v>
       </c>
       <c r="D64" t="n">
-        <v>-798.091069045219</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E64" t="n">
-        <v>-5795.37660441918</v>
+        <v>-798.091069045216</v>
       </c>
       <c r="F64" t="n">
-        <v>67.9425553351832</v>
+        <v>-5795.37660442012</v>
       </c>
       <c r="G64" t="n">
-        <v>43.6436223657884</v>
+        <v>67.9425553352092</v>
       </c>
       <c r="H64" t="n">
-        <v>6.26742926953206</v>
+        <v>43.6436223657904</v>
       </c>
       <c r="I64" t="n">
+        <v>6.26742926952148</v>
+      </c>
+      <c r="J64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>-663.708025267532</v>
+      <c r="K64" t="n">
+        <v>-663.708025267026</v>
       </c>
     </row>
     <row r="65">
@@ -4975,28 +5169,31 @@
         <v>9988.79</v>
       </c>
       <c r="C65" t="n">
-        <v>16672.9036079754</v>
+        <v>11189.8960450376</v>
       </c>
       <c r="D65" t="n">
-        <v>793.074439491635</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E65" t="n">
-        <v>-5860.37940055328</v>
+        <v>793.074439491632</v>
       </c>
       <c r="F65" t="n">
-        <v>67.9425553351832</v>
+        <v>-5860.37940055423</v>
       </c>
       <c r="G65" t="n">
-        <v>147.419471774439</v>
+        <v>67.9425553352092</v>
       </c>
       <c r="H65" t="n">
-        <v>1.66301043798823</v>
+        <v>147.419471774446</v>
       </c>
       <c r="I65" t="n">
+        <v>1.66301043798542</v>
+      </c>
+      <c r="J65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>-632.727639420584</v>
+      <c r="K65" t="n">
+        <v>-632.727639420102</v>
       </c>
     </row>
     <row r="66">
@@ -5007,28 +5204,31 @@
         <v>13229.39</v>
       </c>
       <c r="C66" t="n">
-        <v>16672.9036079754</v>
+        <v>11619.3376964892</v>
       </c>
       <c r="D66" t="n">
-        <v>1040.40556834676</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E66" t="n">
-        <v>-5783.78296645682</v>
+        <v>1040.40556834675</v>
       </c>
       <c r="F66" t="n">
-        <v>67.9425553351832</v>
+        <v>-5783.78296645776</v>
       </c>
       <c r="G66" t="n">
-        <v>195.532328926511</v>
+        <v>67.9425553352092</v>
       </c>
       <c r="H66" t="n">
-        <v>6.88712098410494</v>
+        <v>195.53232892652</v>
       </c>
       <c r="I66" t="n">
-        <v>28.544435275045</v>
+        <v>6.88712098409331</v>
       </c>
       <c r="J66" t="n">
-        <v>-609.094953893772</v>
+        <v>28.5444352750297</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-609.094953893307</v>
       </c>
     </row>
     <row r="67">
@@ -5039,28 +5239,31 @@
         <v>9873.34</v>
       </c>
       <c r="C67" t="n">
-        <v>16672.9036079754</v>
+        <v>10329.8847511675</v>
       </c>
       <c r="D67" t="n">
+        <v>16672.9036079726</v>
+      </c>
+      <c r="E67" t="n">
         <v>-134.900397047693</v>
       </c>
-      <c r="E67" t="n">
-        <v>-5863.62241663576</v>
-      </c>
       <c r="F67" t="n">
-        <v>73.4868128870436</v>
+        <v>-5863.62241663671</v>
       </c>
       <c r="G67" t="n">
-        <v>154.835511331395</v>
+        <v>73.4868128870718</v>
       </c>
       <c r="H67" t="n">
-        <v>12.0265771933599</v>
+        <v>154.835511331403</v>
       </c>
       <c r="I67" t="n">
-        <v>52.6849004358455</v>
+        <v>12.0265771933396</v>
       </c>
       <c r="J67" t="n">
-        <v>-637.529844968843</v>
+        <v>52.6849004358174</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-637.529844968357</v>
       </c>
     </row>
     <row r="68">
@@ -5071,28 +5274,31 @@
         <v>10803.02</v>
       </c>
       <c r="C68" t="n">
-        <v>16672.9036079754</v>
+        <v>11213.2028543639</v>
       </c>
       <c r="D68" t="n">
-        <v>621.674397004273</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E68" t="n">
-        <v>-5742.58383547347</v>
+        <v>621.67439700427</v>
       </c>
       <c r="F68" t="n">
-        <v>72.522697558981</v>
+        <v>-5742.5838354744</v>
       </c>
       <c r="G68" t="n">
-        <v>156.645118906959</v>
+        <v>72.5226975590088</v>
       </c>
       <c r="H68" t="n">
-        <v>5.12689683281811</v>
+        <v>156.645118906966</v>
       </c>
       <c r="I68" t="n">
-        <v>48.7929051042178</v>
+        <v>5.12689683280945</v>
       </c>
       <c r="J68" t="n">
-        <v>-621.878933542029</v>
+        <v>48.7929051041917</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-621.878933541555</v>
       </c>
     </row>
     <row r="69">
@@ -5103,28 +5309,31 @@
         <v>11306.49</v>
       </c>
       <c r="C69" t="n">
-        <v>16672.9036079754</v>
+        <v>11333.0073527201</v>
       </c>
       <c r="D69" t="n">
-        <v>816.096365402892</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E69" t="n">
-        <v>-5811.04354008242</v>
+        <v>816.096365402888</v>
       </c>
       <c r="F69" t="n">
-        <v>72.522697558981</v>
+        <v>-5811.04354008336</v>
       </c>
       <c r="G69" t="n">
-        <v>163.2448447112</v>
+        <v>72.5226975590088</v>
       </c>
       <c r="H69" t="n">
-        <v>2.29551362483025</v>
+        <v>163.244844711207</v>
       </c>
       <c r="I69" t="n">
-        <v>42.0541327143586</v>
+        <v>2.29551362482638</v>
       </c>
       <c r="J69" t="n">
-        <v>-625.066269181908</v>
+        <v>42.0541327143362</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-625.066269181432</v>
       </c>
     </row>
     <row r="70">
@@ -5135,28 +5344,31 @@
         <v>12191.04</v>
       </c>
       <c r="C70" t="n">
-        <v>16672.9036079754</v>
+        <v>11354.6589971089</v>
       </c>
       <c r="D70" t="n">
-        <v>470.404223550281</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E70" t="n">
-        <v>-5499.17441339491</v>
+        <v>470.404223550279</v>
       </c>
       <c r="F70" t="n">
-        <v>72.522697558981</v>
+        <v>-5499.1744133958</v>
       </c>
       <c r="G70" t="n">
-        <v>178.750690048869</v>
+        <v>72.5226975590088</v>
       </c>
       <c r="H70" t="n">
-        <v>2.07347926428214</v>
+        <v>178.750690048877</v>
       </c>
       <c r="I70" t="n">
-        <v>23.7033746968841</v>
+        <v>2.07347926427864</v>
       </c>
       <c r="J70" t="n">
-        <v>-566.524662587692</v>
+        <v>23.7033746968714</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-566.52466258726</v>
       </c>
     </row>
     <row r="71">
@@ -5167,28 +5379,31 @@
         <v>16450.66</v>
       </c>
       <c r="C71" t="n">
-        <v>16672.9036079754</v>
+        <v>14940.7889093964</v>
       </c>
       <c r="D71" t="n">
-        <v>4095.97952161511</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E71" t="n">
-        <v>-5619.1574307569</v>
+        <v>4095.97952161509</v>
       </c>
       <c r="F71" t="n">
-        <v>72.522697558981</v>
+        <v>-5619.1574307578</v>
       </c>
       <c r="G71" t="n">
-        <v>255.012573533355</v>
+        <v>72.5226975590088</v>
       </c>
       <c r="H71" t="n">
-        <v>2.09750916433621</v>
+        <v>255.012573533367</v>
       </c>
       <c r="I71" t="n">
-        <v>50.144084532572</v>
+        <v>2.09750916433267</v>
       </c>
       <c r="J71" t="n">
-        <v>-588.713654223212</v>
+        <v>50.1440845325452</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-588.713654222764</v>
       </c>
     </row>
     <row r="72">
@@ -5199,28 +5414,31 @@
         <v>10618.76</v>
       </c>
       <c r="C72" t="n">
-        <v>16672.9036079754</v>
+        <v>10874.9032310136</v>
       </c>
       <c r="D72" t="n">
+        <v>16672.9036079726</v>
+      </c>
+      <c r="E72" t="n">
         <v>105.307908923255</v>
       </c>
-      <c r="E72" t="n">
-        <v>-5604.8598043929</v>
-      </c>
       <c r="F72" t="n">
-        <v>74.2421771315945</v>
+        <v>-5604.85980439381</v>
       </c>
       <c r="G72" t="n">
-        <v>154.926483872796</v>
+        <v>74.2421771316229</v>
       </c>
       <c r="H72" t="n">
-        <v>3.81828390079278</v>
+        <v>154.926483872803</v>
       </c>
       <c r="I72" t="n">
-        <v>59.4069882117407</v>
+        <v>3.81828390078634</v>
       </c>
       <c r="J72" t="n">
-        <v>-590.84241460586</v>
+        <v>59.4069882117089</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-590.84241460541</v>
       </c>
     </row>
     <row r="73">
@@ -5231,28 +5449,31 @@
         <v>13129.04</v>
       </c>
       <c r="C73" t="n">
-        <v>16672.9036079754</v>
+        <v>11843.5013013365</v>
       </c>
       <c r="D73" t="n">
+        <v>16672.9036079726</v>
+      </c>
+      <c r="E73" t="n">
         <v>1066.44175685744</v>
       </c>
-      <c r="E73" t="n">
-        <v>-5626.6740006053</v>
-      </c>
       <c r="F73" t="n">
-        <v>74.2421771315945</v>
+        <v>-5626.67400060621</v>
       </c>
       <c r="G73" t="n">
-        <v>166.634813668656</v>
+        <v>74.2421771316229</v>
       </c>
       <c r="H73" t="n">
-        <v>7.25450086203302</v>
+        <v>166.634813668663</v>
       </c>
       <c r="I73" t="n">
-        <v>58.8110175830193</v>
+        <v>7.25450086202078</v>
       </c>
       <c r="J73" t="n">
-        <v>-576.1125721331</v>
+        <v>58.8110175829879</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-576.112572132661</v>
       </c>
     </row>
     <row r="74">
@@ -5263,28 +5484,31 @@
         <v>13355.72</v>
       </c>
       <c r="C74" t="n">
-        <v>16672.9036079754</v>
+        <v>11738.7009009152</v>
       </c>
       <c r="D74" t="n">
-        <v>986.613689417133</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E74" t="n">
-        <v>-5649.80577814407</v>
+        <v>986.613689417129</v>
       </c>
       <c r="F74" t="n">
-        <v>74.2421771315945</v>
+        <v>-5649.80577814498</v>
       </c>
       <c r="G74" t="n">
-        <v>184.773419350696</v>
+        <v>74.2421771316229</v>
       </c>
       <c r="H74" t="n">
-        <v>7.53813358690261</v>
+        <v>184.773419350705</v>
       </c>
       <c r="I74" t="n">
-        <v>59.1677284946449</v>
+        <v>7.53813358688989</v>
       </c>
       <c r="J74" t="n">
-        <v>-596.732076893893</v>
+        <v>59.1677284946133</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-596.732076893438</v>
       </c>
     </row>
     <row r="75">
@@ -5295,28 +5519,31 @@
         <v>12094.36</v>
       </c>
       <c r="C75" t="n">
-        <v>16672.9036079754</v>
+        <v>11774.5052977056</v>
       </c>
       <c r="D75" t="n">
-        <v>945.372842667848</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E75" t="n">
-        <v>-5577.98157160099</v>
+        <v>945.372842667844</v>
       </c>
       <c r="F75" t="n">
-        <v>74.2421771315945</v>
+        <v>-5577.98157160189</v>
       </c>
       <c r="G75" t="n">
-        <v>187.503177637326</v>
+        <v>74.2421771316229</v>
       </c>
       <c r="H75" t="n">
-        <v>7.23666492901272</v>
+        <v>187.503177637335</v>
       </c>
       <c r="I75" t="n">
-        <v>57.8844372188473</v>
+        <v>7.2366649290005</v>
       </c>
       <c r="J75" t="n">
-        <v>-592.656038250199</v>
+        <v>57.8844372188164</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-592.656038249748</v>
       </c>
     </row>
     <row r="76">
@@ -5327,28 +5554,31 @@
         <v>11220.74</v>
       </c>
       <c r="C76" t="n">
-        <v>16672.9036079754</v>
+        <v>11277.2571324874</v>
       </c>
       <c r="D76" t="n">
-        <v>617.567264331197</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E76" t="n">
-        <v>-5568.68294742746</v>
+        <v>617.567264331194</v>
       </c>
       <c r="F76" t="n">
-        <v>67.5318394737209</v>
+        <v>-5568.68294742836</v>
       </c>
       <c r="G76" t="n">
-        <v>33.5462444361783</v>
+        <v>67.5318394737468</v>
       </c>
       <c r="H76" t="n">
-        <v>4.13616629657369</v>
+        <v>33.5462444361798</v>
       </c>
       <c r="I76" t="n">
-        <v>16.6763493039861</v>
+        <v>4.1361662965667</v>
       </c>
       <c r="J76" t="n">
-        <v>-566.421391898997</v>
+        <v>16.6763493039772</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-566.421391898566</v>
       </c>
     </row>
     <row r="77">
@@ -5359,28 +5589,31 @@
         <v>10975.62</v>
       </c>
       <c r="C77" t="n">
-        <v>16672.9036079754</v>
+        <v>11472.9077601681</v>
       </c>
       <c r="D77" t="n">
-        <v>642.255971250476</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E77" t="n">
-        <v>-5500.06960372192</v>
+        <v>642.255971250473</v>
       </c>
       <c r="F77" t="n">
-        <v>67.5318394737209</v>
+        <v>-5500.06960372281</v>
       </c>
       <c r="G77" t="n">
-        <v>156.839935180377</v>
+        <v>67.5318394737468</v>
       </c>
       <c r="H77" t="n">
-        <v>6.548314890165</v>
+        <v>156.839935180384</v>
       </c>
       <c r="I77" t="n">
-        <v>1.78823716765462</v>
+        <v>6.54831489015395</v>
       </c>
       <c r="J77" t="n">
-        <v>-574.890542044574</v>
+        <v>1.78823716765366</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-574.890542044135</v>
       </c>
     </row>
     <row r="78">
@@ -5391,28 +5624,31 @@
         <v>10893.71</v>
       </c>
       <c r="C78" t="n">
-        <v>16672.9036079754</v>
+        <v>11369.6418978173</v>
       </c>
       <c r="D78" t="n">
-        <v>482.176972126037</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E78" t="n">
-        <v>-5499.20761397681</v>
+        <v>482.176972126035</v>
       </c>
       <c r="F78" t="n">
-        <v>67.5318394737209</v>
+        <v>-5499.2076139777</v>
       </c>
       <c r="G78" t="n">
-        <v>208.482639874236</v>
+        <v>67.5318394737468</v>
       </c>
       <c r="H78" t="n">
-        <v>8.84080189598644</v>
+        <v>208.482639874245</v>
       </c>
       <c r="I78" t="n">
-        <v>0.180160427460802</v>
+        <v>8.84080189597152</v>
       </c>
       <c r="J78" t="n">
-        <v>-571.266509975498</v>
+        <v>0.180160427460705</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-571.266509975062</v>
       </c>
     </row>
     <row r="79">
@@ -5423,28 +5659,31 @@
         <v>10542.73</v>
       </c>
       <c r="C79" t="n">
-        <v>16672.9036079754</v>
+        <v>11043.9165558158</v>
       </c>
       <c r="D79" t="n">
+        <v>16672.9036079726</v>
+      </c>
+      <c r="E79" t="n">
         <v>219.03643096022</v>
       </c>
-      <c r="E79" t="n">
-        <v>-5558.22122413039</v>
-      </c>
       <c r="F79" t="n">
-        <v>67.5318394737209</v>
+        <v>-5558.22122413129</v>
       </c>
       <c r="G79" t="n">
-        <v>203.454771310632</v>
+        <v>67.5318394737468</v>
       </c>
       <c r="H79" t="n">
-        <v>2.12183849994274</v>
+        <v>203.454771310641</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0180295567281635</v>
+        <v>2.12183849993916</v>
       </c>
       <c r="J79" t="n">
-        <v>-562.928737827251</v>
+        <v>0.0180295567281539</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-562.928737826822</v>
       </c>
     </row>
     <row r="80">
@@ -5455,28 +5694,31 @@
         <v>12753.33</v>
       </c>
       <c r="C80" t="n">
-        <v>16672.9036079754</v>
+        <v>12762.7257457495</v>
       </c>
       <c r="D80" t="n">
-        <v>1824.16043723113</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E80" t="n">
-        <v>-5491.98756093422</v>
+        <v>1824.16043723112</v>
       </c>
       <c r="F80" t="n">
-        <v>67.5318394737209</v>
+        <v>-5491.98756093511</v>
       </c>
       <c r="G80" t="n">
-        <v>225.523636812673</v>
+        <v>67.5318394737468</v>
       </c>
       <c r="H80" t="n">
-        <v>1.62533234320111</v>
+        <v>225.523636812683</v>
       </c>
       <c r="I80" t="n">
-        <v>0.00180309096133854</v>
+        <v>1.62533234319837</v>
       </c>
       <c r="J80" t="n">
-        <v>-537.033350240139</v>
+        <v>0.00180309096133757</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-537.03335023973</v>
       </c>
     </row>
     <row r="81">
@@ -5487,28 +5729,31 @@
         <v>9347.5</v>
       </c>
       <c r="C81" t="n">
-        <v>16672.9036079754</v>
+        <v>9592.76271074583</v>
       </c>
       <c r="D81" t="n">
-        <v>-1163.02444448683</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E81" t="n">
-        <v>-5533.34475077616</v>
+        <v>-1163.02444448682</v>
       </c>
       <c r="F81" t="n">
-        <v>65.2030898512844</v>
+        <v>-5533.34475077705</v>
       </c>
       <c r="G81" t="n">
-        <v>79.3759764220485</v>
+        <v>65.2030898513094</v>
       </c>
       <c r="H81" t="n">
-        <v>0.244900872969105</v>
+        <v>79.3759764220521</v>
       </c>
       <c r="I81" t="n">
-        <v>0.000180310449170443</v>
+        <v>0.244900872968692</v>
       </c>
       <c r="J81" t="n">
-        <v>-528.595849420105</v>
+        <v>0.000180310449170346</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-528.595849419702</v>
       </c>
     </row>
     <row r="82">
@@ -5519,28 +5764,31 @@
         <v>9800.28</v>
       </c>
       <c r="C82" t="n">
-        <v>16672.9036079754</v>
+        <v>9899.54959002519</v>
       </c>
       <c r="D82" t="n">
-        <v>-738.108869055357</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E82" t="n">
-        <v>-5586.83285197188</v>
+        <v>-738.108869055354</v>
       </c>
       <c r="F82" t="n">
-        <v>65.2030898512844</v>
+        <v>-5586.83285197278</v>
       </c>
       <c r="G82" t="n">
-        <v>10.1388449607476</v>
+        <v>65.2030898513094</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0307870764625471</v>
+        <v>10.1388449607481</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0000180310584403322</v>
+        <v>0.0307870764624951</v>
       </c>
       <c r="J82" t="n">
-        <v>-523.785036839273</v>
+        <v>0.0000180310584403226</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-523.785036838873</v>
       </c>
     </row>
     <row r="83">
@@ -5551,28 +5799,31 @@
         <v>9341.86</v>
       </c>
       <c r="C83" t="n">
-        <v>16672.9036079754</v>
+        <v>9917.83835826838</v>
       </c>
       <c r="D83" t="n">
-        <v>-842.377774046465</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E83" t="n">
-        <v>-5647.05849283216</v>
+        <v>-842.377774046462</v>
       </c>
       <c r="F83" t="n">
-        <v>65.2030898512844</v>
+        <v>-5647.05849283308</v>
       </c>
       <c r="G83" t="n">
-        <v>169.338832569825</v>
+        <v>65.2030898513094</v>
       </c>
       <c r="H83" t="n">
-        <v>0.00712534228772371</v>
+        <v>169.338832569833</v>
       </c>
       <c r="I83" t="n">
-        <v>27.2250114102031</v>
+        <v>0.00712534228771169</v>
       </c>
       <c r="J83" t="n">
-        <v>-527.403041998729</v>
+        <v>27.2250114101886</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-527.403041998327</v>
       </c>
     </row>
     <row r="84">
@@ -5583,28 +5834,31 @@
         <v>9563.83</v>
       </c>
       <c r="C84" t="n">
-        <v>16672.9036079754</v>
+        <v>10137.4738459556</v>
       </c>
       <c r="D84" t="n">
-        <v>-700.69397249885</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E84" t="n">
-        <v>-5541.88934993596</v>
+        <v>-700.693972498847</v>
       </c>
       <c r="F84" t="n">
-        <v>62.2922781087094</v>
+        <v>-5541.88934993686</v>
       </c>
       <c r="G84" t="n">
-        <v>164.511603107261</v>
+        <v>62.2922781087333</v>
       </c>
       <c r="H84" t="n">
-        <v>0.00386755907720242</v>
+        <v>164.511603107269</v>
       </c>
       <c r="I84" t="n">
-        <v>46.8517399074415</v>
+        <v>0.00386755907719589</v>
       </c>
       <c r="J84" t="n">
-        <v>-566.505928264223</v>
+        <v>46.8517399074164</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-566.505928263792</v>
       </c>
     </row>
     <row r="85">
@@ -5615,28 +5869,31 @@
         <v>9305.65</v>
       </c>
       <c r="C85" t="n">
-        <v>16672.9036079754</v>
+        <v>10051.5181306409</v>
       </c>
       <c r="D85" t="n">
-        <v>-558.3873172203</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E85" t="n">
-        <v>-5689.35999310493</v>
+        <v>-558.387317220298</v>
       </c>
       <c r="F85" t="n">
-        <v>64.0938372381013</v>
+        <v>-5689.35999310585</v>
       </c>
       <c r="G85" t="n">
-        <v>132.813372276262</v>
+        <v>64.0938372381259</v>
       </c>
       <c r="H85" t="n">
-        <v>3.19798598222343</v>
+        <v>132.813372276268</v>
       </c>
       <c r="I85" t="n">
-        <v>41.9715175394571</v>
+        <v>3.19798598221804</v>
       </c>
       <c r="J85" t="n">
-        <v>-615.714880042096</v>
+        <v>41.9715175394347</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-615.714880041627</v>
       </c>
     </row>
     <row r="86">
@@ -5647,28 +5904,31 @@
         <v>8855.96</v>
       </c>
       <c r="C86" t="n">
-        <v>16672.9036079754</v>
+        <v>9703.19765968158</v>
       </c>
       <c r="D86" t="n">
-        <v>-857.508098392504</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E86" t="n">
-        <v>-5692.00950427415</v>
+        <v>-857.508098392501</v>
       </c>
       <c r="F86" t="n">
-        <v>64.0938372381013</v>
+        <v>-5692.00950427507</v>
       </c>
       <c r="G86" t="n">
-        <v>111.556163273364</v>
+        <v>64.0938372381259</v>
       </c>
       <c r="H86" t="n">
-        <v>2.73060167335097</v>
+        <v>111.55616327337</v>
       </c>
       <c r="I86" t="n">
-        <v>40.6847029288591</v>
+        <v>2.73060167334636</v>
       </c>
       <c r="J86" t="n">
-        <v>-639.253650737639</v>
+        <v>40.6847029288373</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-639.253650737152</v>
       </c>
     </row>
     <row r="87">
@@ -5679,28 +5939,31 @@
         <v>9153.43</v>
       </c>
       <c r="C87" t="n">
-        <v>16672.9036079754</v>
+        <v>9967.31246078286</v>
       </c>
       <c r="D87" t="n">
-        <v>-533.44794061882</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E87" t="n">
-        <v>-5786.47518802761</v>
+        <v>-533.447940618818</v>
       </c>
       <c r="F87" t="n">
-        <v>64.0938372381013</v>
+        <v>-5786.47518802855</v>
       </c>
       <c r="G87" t="n">
-        <v>138.583254516883</v>
+        <v>64.0938372381259</v>
       </c>
       <c r="H87" t="n">
-        <v>3.33253723689253</v>
+        <v>138.583254516889</v>
       </c>
       <c r="I87" t="n">
-        <v>35.8666557267943</v>
+        <v>3.33253723688691</v>
       </c>
       <c r="J87" t="n">
-        <v>-627.544303261557</v>
+        <v>35.8666557267752</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-627.544303261079</v>
       </c>
     </row>
     <row r="88">
@@ -5711,28 +5974,31 @@
         <v>9868.61</v>
       </c>
       <c r="C88" t="n">
-        <v>16672.9036079754</v>
+        <v>11192.890682298</v>
       </c>
       <c r="D88" t="n">
-        <v>476.013037590311</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E88" t="n">
-        <v>-5656.47144954585</v>
+        <v>476.013037590309</v>
       </c>
       <c r="F88" t="n">
-        <v>64.0938372381013</v>
+        <v>-5656.47144954677</v>
       </c>
       <c r="G88" t="n">
-        <v>193.971045369379</v>
+        <v>64.0938372381259</v>
       </c>
       <c r="H88" t="n">
-        <v>11.3148592663782</v>
+        <v>193.971045369388</v>
       </c>
       <c r="I88" t="n">
-        <v>33.1701723626626</v>
+        <v>11.3148592663591</v>
       </c>
       <c r="J88" t="n">
-        <v>-602.104427955159</v>
+        <v>33.1701723626449</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-602.1044279547</v>
       </c>
     </row>
     <row r="89">
@@ -5743,28 +6009,31 @@
         <v>9754.92</v>
       </c>
       <c r="C89" t="n">
-        <v>16672.9036079754</v>
+        <v>9974.27324730313</v>
       </c>
       <c r="D89" t="n">
-        <v>-738.267083137953</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E89" t="n">
-        <v>-5705.32786009931</v>
+        <v>-738.26708313795</v>
       </c>
       <c r="F89" t="n">
-        <v>64.2274166400069</v>
+        <v>-5705.32786010023</v>
       </c>
       <c r="G89" t="n">
-        <v>205.121953981702</v>
+        <v>64.2274166400315</v>
       </c>
       <c r="H89" t="n">
-        <v>6.88434804497634</v>
+        <v>205.121953981711</v>
       </c>
       <c r="I89" t="n">
-        <v>58.3085647172737</v>
+        <v>6.88434804496472</v>
       </c>
       <c r="J89" t="n">
-        <v>-589.577700815716</v>
+        <v>58.3085647172426</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-589.577700815266</v>
       </c>
     </row>
     <row r="90">
@@ -5775,28 +6044,31 @@
         <v>10238.62</v>
       </c>
       <c r="C90" t="n">
-        <v>16672.9036079754</v>
+        <v>10045.1761106321</v>
       </c>
       <c r="D90" t="n">
-        <v>-589.850076212852</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E90" t="n">
-        <v>-5719.54487817353</v>
+        <v>-589.850076212849</v>
       </c>
       <c r="F90" t="n">
-        <v>64.2274166400069</v>
+        <v>-5719.54487817445</v>
       </c>
       <c r="G90" t="n">
-        <v>165.699694755435</v>
+        <v>64.2274166400315</v>
       </c>
       <c r="H90" t="n">
-        <v>7.60540354448319</v>
+        <v>165.699694755442</v>
       </c>
       <c r="I90" t="n">
-        <v>32.4149191787023</v>
+        <v>7.60540354447036</v>
       </c>
       <c r="J90" t="n">
-        <v>-588.279977072258</v>
+        <v>32.414919178685</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-588.279977071809</v>
       </c>
     </row>
     <row r="91">
@@ -5807,28 +6079,31 @@
         <v>10078.72</v>
       </c>
       <c r="C91" t="n">
-        <v>16672.9036079754</v>
+        <v>10527.3555721131</v>
       </c>
       <c r="D91" t="n">
-        <v>-192.187875426378</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E91" t="n">
-        <v>-5689.78587697308</v>
+        <v>-192.187875426377</v>
       </c>
       <c r="F91" t="n">
-        <v>64.2274166400069</v>
+        <v>-5689.785876974</v>
       </c>
       <c r="G91" t="n">
-        <v>200.54221633814</v>
+        <v>64.2274166400315</v>
       </c>
       <c r="H91" t="n">
-        <v>7.08276623766407</v>
+        <v>200.542216338149</v>
       </c>
       <c r="I91" t="n">
-        <v>28.694293247118</v>
+        <v>7.08276623765211</v>
       </c>
       <c r="J91" t="n">
-        <v>-564.120975922505</v>
+        <v>28.6942932471027</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-564.120975922075</v>
       </c>
     </row>
     <row r="92">
@@ -5839,28 +6114,31 @@
         <v>12789.45</v>
       </c>
       <c r="C92" t="n">
-        <v>16672.9036079754</v>
+        <v>13012.5987300429</v>
       </c>
       <c r="D92" t="n">
+        <v>16672.9036079726</v>
+      </c>
+      <c r="E92" t="n">
         <v>2247.98747093912</v>
       </c>
-      <c r="E92" t="n">
-        <v>-5724.95776175049</v>
-      </c>
       <c r="F92" t="n">
-        <v>64.2274166400069</v>
+        <v>-5724.95776175141</v>
       </c>
       <c r="G92" t="n">
-        <v>254.330425715407</v>
+        <v>64.2274166400315</v>
       </c>
       <c r="H92" t="n">
-        <v>28.7593805671071</v>
+        <v>254.330425715419</v>
       </c>
       <c r="I92" t="n">
-        <v>27.7512338649625</v>
+        <v>28.7593805670586</v>
       </c>
       <c r="J92" t="n">
-        <v>-558.403043905269</v>
+        <v>27.7512338649477</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-558.403043904843</v>
       </c>
     </row>
     <row r="93">
@@ -5871,28 +6149,31 @@
         <v>11081.17</v>
       </c>
       <c r="C93" t="n">
-        <v>16672.9036079754</v>
+        <v>10776.1009901564</v>
       </c>
       <c r="D93" t="n">
-        <v>-241.341712033247</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E93" t="n">
-        <v>-5352.33124027708</v>
+        <v>-241.341712033246</v>
       </c>
       <c r="F93" t="n">
-        <v>70.3459434780971</v>
+        <v>-5352.33124027795</v>
       </c>
       <c r="G93" t="n">
-        <v>122.843443454204</v>
+        <v>70.3459434781241</v>
       </c>
       <c r="H93" t="n">
-        <v>12.8099134332865</v>
+        <v>122.843443454209</v>
       </c>
       <c r="I93" t="n">
-        <v>30.4066617390004</v>
+        <v>12.8099134332649</v>
       </c>
       <c r="J93" t="n">
-        <v>-539.535627609978</v>
+        <v>30.4066617389842</v>
+      </c>
+      <c r="K93" t="n">
+        <v>-539.535627609567</v>
       </c>
     </row>
     <row r="94">
@@ -5903,28 +6184,31 @@
         <v>11307.97</v>
       </c>
       <c r="C94" t="n">
-        <v>16672.9036079754</v>
+        <v>11663.8133350851</v>
       </c>
       <c r="D94" t="n">
-        <v>723.70061267736</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E94" t="n">
-        <v>-5405.55048483634</v>
+        <v>723.700612677357</v>
       </c>
       <c r="F94" t="n">
-        <v>71.249703679713</v>
+        <v>-5405.55048483721</v>
       </c>
       <c r="G94" t="n">
-        <v>84.0810231807683</v>
+        <v>71.2497036797403</v>
       </c>
       <c r="H94" t="n">
-        <v>9.4611846629156</v>
+        <v>84.0810231807721</v>
       </c>
       <c r="I94" t="n">
-        <v>37.2448328164225</v>
+        <v>9.46118466289964</v>
       </c>
       <c r="J94" t="n">
-        <v>-529.277145067929</v>
+        <v>37.2448328164026</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-529.277145067526</v>
       </c>
     </row>
     <row r="95">
@@ -5935,28 +6219,31 @@
         <v>13003.97</v>
       </c>
       <c r="C95" t="n">
-        <v>16672.9036079754</v>
+        <v>13736.786148052</v>
       </c>
       <c r="D95" t="n">
-        <v>2715.07831290756</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E95" t="n">
-        <v>-5449.48935506873</v>
+        <v>2715.07831290754</v>
       </c>
       <c r="F95" t="n">
-        <v>71.249703679713</v>
+        <v>-5449.48935506961</v>
       </c>
       <c r="G95" t="n">
-        <v>205.157084519748</v>
+        <v>71.2497036797403</v>
       </c>
       <c r="H95" t="n">
-        <v>11.5169477925056</v>
+        <v>205.157084519757</v>
       </c>
       <c r="I95" t="n">
-        <v>35.5288732384277</v>
+        <v>11.5169477924862</v>
       </c>
       <c r="J95" t="n">
-        <v>-525.159026989332</v>
+        <v>35.5288732384087</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-525.159026988932</v>
       </c>
     </row>
     <row r="96">
@@ -5967,28 +6254,31 @@
         <v>19320.26</v>
       </c>
       <c r="C96" t="n">
-        <v>16672.9036079754</v>
+        <v>18911.7796601312</v>
       </c>
       <c r="D96" t="n">
-        <v>7905.43718562313</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E96" t="n">
-        <v>-5476.69089030942</v>
+        <v>7905.4371856231</v>
       </c>
       <c r="F96" t="n">
-        <v>71.249703679713</v>
+        <v>-5476.69089031031</v>
       </c>
       <c r="G96" t="n">
-        <v>197.64740062904</v>
+        <v>71.2497036797403</v>
       </c>
       <c r="H96" t="n">
-        <v>30.7064225375727</v>
+        <v>197.647400629049</v>
       </c>
       <c r="I96" t="n">
-        <v>27.7122481812968</v>
+        <v>30.7064225375209</v>
       </c>
       <c r="J96" t="n">
-        <v>-517.186018182237</v>
+        <v>27.7122481812819</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-517.186018181843</v>
       </c>
     </row>
     <row r="97">
@@ -5999,28 +6289,31 @@
         <v>14074.09</v>
       </c>
       <c r="C97" t="n">
-        <v>16672.9036079754</v>
+        <v>14800.7326374867</v>
       </c>
       <c r="D97" t="n">
-        <v>3842.83869580125</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E97" t="n">
-        <v>-5500.8447535223</v>
+        <v>3842.83869580123</v>
       </c>
       <c r="F97" t="n">
-        <v>71.249703679713</v>
+        <v>-5500.84475352319</v>
       </c>
       <c r="G97" t="n">
-        <v>204.502946281717</v>
+        <v>71.2497036797403</v>
       </c>
       <c r="H97" t="n">
-        <v>15.6517573830467</v>
+        <v>204.502946281726</v>
       </c>
       <c r="I97" t="n">
-        <v>25.7311750556268</v>
+        <v>15.6517573830203</v>
       </c>
       <c r="J97" t="n">
-        <v>-531.300495164435</v>
+        <v>25.731175055613</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-531.30049516403</v>
       </c>
     </row>
     <row r="98">
@@ -6031,28 +6324,31 @@
         <v>6879.31</v>
       </c>
       <c r="C98" t="n">
-        <v>16672.9036079754</v>
+        <v>7816.31448339143</v>
       </c>
       <c r="D98" t="n">
-        <v>-2849.00267788143</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E98" t="n">
-        <v>-5617.61665144918</v>
+        <v>-2849.00267788142</v>
       </c>
       <c r="F98" t="n">
-        <v>71.1098424417634</v>
+        <v>-5617.61665145009</v>
       </c>
       <c r="G98" t="n">
-        <v>38.5396405012985</v>
+        <v>71.1098424417906</v>
       </c>
       <c r="H98" t="n">
-        <v>12.5878214205629</v>
+        <v>38.5396405013002</v>
       </c>
       <c r="I98" t="n">
-        <v>2.86673920970043</v>
+        <v>12.5878214205417</v>
       </c>
       <c r="J98" t="n">
-        <v>-515.073838823418</v>
+        <v>2.8667392096989</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-515.073838823025</v>
       </c>
     </row>
     <row r="99">
@@ -6063,28 +6359,31 @@
         <v>8394.7</v>
       </c>
       <c r="C99" t="n">
-        <v>16672.9036079754</v>
+        <v>8807.13167830757</v>
       </c>
       <c r="D99" t="n">
-        <v>-1795.45791676111</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E99" t="n">
-        <v>-5664.99070838771</v>
+        <v>-1795.4579167611</v>
       </c>
       <c r="F99" t="n">
-        <v>71.1098424417634</v>
+        <v>-5664.99070838862</v>
       </c>
       <c r="G99" t="n">
-        <v>4.33627374918992</v>
+        <v>71.1098424417906</v>
       </c>
       <c r="H99" t="n">
-        <v>9.83937596812452</v>
+        <v>4.33627374919012</v>
       </c>
       <c r="I99" t="n">
-        <v>0.290118365417335</v>
+        <v>9.83937596810792</v>
       </c>
       <c r="J99" t="n">
-        <v>-490.898915040214</v>
+        <v>0.29011836541718</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-490.89891503984</v>
       </c>
     </row>
     <row r="100">
@@ -6095,28 +6394,31 @@
         <v>7934.16</v>
       </c>
       <c r="C100" t="n">
-        <v>16672.9036079754</v>
+        <v>8538.96495764794</v>
       </c>
       <c r="D100" t="n">
+        <v>16672.9036079726</v>
+      </c>
+      <c r="E100" t="n">
         <v>-1934.69675070822</v>
       </c>
-      <c r="E100" t="n">
-        <v>-5787.14169232757</v>
-      </c>
       <c r="F100" t="n">
-        <v>71.1098424417634</v>
+        <v>-5787.14169232851</v>
       </c>
       <c r="G100" t="n">
-        <v>0.439368979183937</v>
+        <v>71.1098424417906</v>
       </c>
       <c r="H100" t="n">
-        <v>1.60494337201194</v>
+        <v>0.439368979183957</v>
       </c>
       <c r="I100" t="n">
-        <v>0.0290468901518392</v>
+        <v>1.60494337200923</v>
       </c>
       <c r="J100" t="n">
-        <v>-485.283408971469</v>
+        <v>0.0290468901518237</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-485.2834089711</v>
       </c>
     </row>
     <row r="101">
@@ -6127,28 +6429,31 @@
         <v>8174.58</v>
       </c>
       <c r="C101" t="n">
-        <v>16672.9036079754</v>
+        <v>9034.31572426134</v>
       </c>
       <c r="D101" t="n">
+        <v>16672.9036079726</v>
+      </c>
+      <c r="E101" t="n">
         <v>-1563.93624910618</v>
       </c>
-      <c r="E101" t="n">
-        <v>-5668.22348675132</v>
-      </c>
       <c r="F101" t="n">
-        <v>71.1098424417634</v>
+        <v>-5668.22348675223</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0439954333817077</v>
+        <v>71.1098424417906</v>
       </c>
       <c r="H101" t="n">
-        <v>0.174079460383117</v>
+        <v>0.0439954333817098</v>
       </c>
       <c r="I101" t="n">
-        <v>0.00290504017269735</v>
+        <v>0.174079460382823</v>
       </c>
       <c r="J101" t="n">
-        <v>-477.758970228972</v>
+        <v>0.0029050401726958</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-477.758970228608</v>
       </c>
     </row>
     <row r="102">
@@ -6159,28 +6464,31 @@
         <v>9285.12</v>
       </c>
       <c r="C102" t="n">
-        <v>16672.9036079754</v>
+        <v>9433.82381613353</v>
       </c>
       <c r="D102" t="n">
-        <v>-1156.99638057476</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E102" t="n">
-        <v>-5657.617822698</v>
+        <v>-1156.99638057475</v>
       </c>
       <c r="F102" t="n">
-        <v>68.59554442008</v>
+        <v>-5657.61782269892</v>
       </c>
       <c r="G102" t="n">
-        <v>3.82714215836358</v>
+        <v>68.5955444201063</v>
       </c>
       <c r="H102" t="n">
-        <v>0.018184185205942</v>
+        <v>3.82714215836375</v>
       </c>
       <c r="I102" t="n">
-        <v>0.000290507529472308</v>
+        <v>0.0181841852059113</v>
       </c>
       <c r="J102" t="n">
-        <v>-496.906749837009</v>
+        <v>0.000290507529472152</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-496.906749836631</v>
       </c>
     </row>
     <row r="103">
@@ -6191,28 +6499,31 @@
         <v>8198.91</v>
       </c>
       <c r="C103" t="n">
-        <v>16672.9036079754</v>
+        <v>8971.74835710395</v>
       </c>
       <c r="D103" t="n">
+        <v>16672.9036079726</v>
+      </c>
+      <c r="E103" t="n">
         <v>-1616.53328789118</v>
       </c>
-      <c r="E103" t="n">
-        <v>-5658.90560728762</v>
-      </c>
       <c r="F103" t="n">
-        <v>66.3812830231923</v>
+        <v>-5658.90560728854</v>
       </c>
       <c r="G103" t="n">
-        <v>3.06605563991032</v>
+        <v>66.3812830232177</v>
       </c>
       <c r="H103" t="n">
-        <v>0.002427942242413</v>
+        <v>3.06605563991047</v>
       </c>
       <c r="I103" t="n">
-        <v>0.0000290507880770341</v>
+        <v>0.0024279422424089</v>
       </c>
       <c r="J103" t="n">
-        <v>-495.166151345502</v>
+        <v>0.0000290507880770185</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-495.166151345125</v>
       </c>
     </row>
     <row r="104">
@@ -6223,28 +6534,31 @@
         <v>8757.38</v>
       </c>
       <c r="C104" t="n">
-        <v>16672.9036079754</v>
+        <v>9020.71094858739</v>
       </c>
       <c r="D104" t="n">
-        <v>-1580.65141566257</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E104" t="n">
-        <v>-5647.69659859023</v>
+        <v>-1580.65141566256</v>
       </c>
       <c r="F104" t="n">
-        <v>66.3812830231923</v>
+        <v>-5647.69659859114</v>
       </c>
       <c r="G104" t="n">
-        <v>4.10025805135332</v>
+        <v>66.3812830232177</v>
       </c>
       <c r="H104" t="n">
-        <v>0.000687151160904582</v>
+        <v>4.10025805135351</v>
       </c>
       <c r="I104" t="n">
-        <v>0.00000290507915172722</v>
+        <v>0.000687151160903422</v>
       </c>
       <c r="J104" t="n">
-        <v>-494.326876262732</v>
+        <v>0.00000290507915172566</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-494.326876262355</v>
       </c>
     </row>
     <row r="105">
@@ -6255,28 +6569,31 @@
         <v>8774.83</v>
       </c>
       <c r="C105" t="n">
-        <v>16672.9036079754</v>
+        <v>9247.24958723611</v>
       </c>
       <c r="D105" t="n">
-        <v>-1373.89323285115</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E105" t="n">
-        <v>-5626.49691163399</v>
+        <v>-1373.89323285114</v>
       </c>
       <c r="F105" t="n">
-        <v>66.3812830231923</v>
+        <v>-5626.4969116349</v>
       </c>
       <c r="G105" t="n">
-        <v>3.04634333648974</v>
+        <v>66.3812830232177</v>
       </c>
       <c r="H105" t="n">
-        <v>0.000629981768663027</v>
+        <v>3.04634333648988</v>
       </c>
       <c r="I105" t="n">
-        <v>0.000000290507911482171</v>
+        <v>0.000629981768661963</v>
       </c>
       <c r="J105" t="n">
-        <v>-494.692132882834</v>
+        <v>0.000000290507911482016</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-494.692132882457</v>
       </c>
     </row>
     <row r="106">
@@ -6287,28 +6604,31 @@
         <v>9517.85</v>
       </c>
       <c r="C106" t="n">
-        <v>16672.9036079754</v>
+        <v>9381.65003028341</v>
       </c>
       <c r="D106" t="n">
-        <v>-1510.14679816321</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E106" t="n">
-        <v>-5352.11264010504</v>
+        <v>-1510.1467981632</v>
       </c>
       <c r="F106" t="n">
-        <v>66.3812830231923</v>
+        <v>-5352.1126401059</v>
       </c>
       <c r="G106" t="n">
-        <v>0.307461499296196</v>
+        <v>66.3812830232177</v>
       </c>
       <c r="H106" t="n">
-        <v>0.000534068082057634</v>
+        <v>0.307461499296211</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0000000290507887824005</v>
+        <v>0.000534068082056733</v>
       </c>
       <c r="J106" t="n">
-        <v>-495.683418040142</v>
+        <v>0.000000029050788782385</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-495.683418039764</v>
       </c>
     </row>
     <row r="107">
@@ -6319,28 +6639,31 @@
         <v>9331.14</v>
       </c>
       <c r="C107" t="n">
-        <v>16672.9036079754</v>
+        <v>9286.08305359437</v>
       </c>
       <c r="D107" t="n">
-        <v>-1562.05811592496</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E107" t="n">
-        <v>-5396.87442917694</v>
+        <v>-1562.05811592495</v>
       </c>
       <c r="F107" t="n">
-        <v>66.3812830231923</v>
+        <v>-5396.87442917781</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0307748074690296</v>
+        <v>66.3812830232177</v>
       </c>
       <c r="H107" t="n">
-        <v>0.000454355125596628</v>
+        <v>0.030774807469031</v>
       </c>
       <c r="I107" t="n">
-        <v>0.0000000029050884823483</v>
+        <v>0.000454355125595861</v>
       </c>
       <c r="J107" t="n">
-        <v>-494.30052146459</v>
+        <v>0.00000000290508848234675</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-494.300521464213</v>
       </c>
     </row>
     <row r="108">
@@ -6351,28 +6674,31 @@
         <v>9395.24</v>
       </c>
       <c r="C108" t="n">
-        <v>16672.9036079754</v>
+        <v>9508.60383537068</v>
       </c>
       <c r="D108" t="n">
-        <v>-1336.73536391219</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E108" t="n">
-        <v>-5398.33319152666</v>
+        <v>-1336.73536391218</v>
       </c>
       <c r="F108" t="n">
-        <v>66.3812830231923</v>
+        <v>-5398.33319152753</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0030777677141711</v>
+        <v>66.3812830232177</v>
       </c>
       <c r="H108" t="n">
-        <v>0.000483530741084223</v>
+        <v>0.00307776771417125</v>
       </c>
       <c r="I108" t="n">
-        <v>0.000000000290513650116857</v>
+        <v>0.000483530741083407</v>
       </c>
       <c r="J108" t="n">
-        <v>-495.616061484581</v>
+        <v>0.000000000290513650116702</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-495.616061484203</v>
       </c>
     </row>
     <row r="109">
@@ -6383,28 +6709,31 @@
         <v>9357.39</v>
       </c>
       <c r="C109" t="n">
-        <v>16672.9036079754</v>
+        <v>9585.1261642555</v>
       </c>
       <c r="D109" t="n">
-        <v>-1325.64053934761</v>
+        <v>16672.9036079726</v>
       </c>
       <c r="E109" t="n">
-        <v>-5336.36449393327</v>
+        <v>-1325.6405393476</v>
       </c>
       <c r="F109" t="n">
-        <v>66.3812830231923</v>
+        <v>-5336.36449393413</v>
       </c>
       <c r="G109" t="n">
-        <v>0.000307779641478904</v>
+        <v>66.3812830232177</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0004094413064898</v>
+        <v>0.000307779641478918</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0000000000290513650117208</v>
+        <v>0.000409441306489109</v>
       </c>
       <c r="J109" t="n">
-        <v>-492.154410679973</v>
+        <v>0.0000000000290513650117053</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-492.154410679598</v>
       </c>
     </row>
     <row r="110">
@@ -6415,28 +6744,31 @@
         <v>9696.17</v>
       </c>
       <c r="C110" t="n">
-        <v>16672.9036079754</v>
+        <v>9851.21396197322</v>
       </c>
       <c r="D110" t="n">
+        <v>16672.9036079726</v>
+      </c>
+      <c r="E110" t="n">
         <v>-1098.32599546656</v>
       </c>
-      <c r="E110" t="n">
-        <v>-5299.53991665639</v>
-      </c>
       <c r="F110" t="n">
-        <v>66.3812830231923</v>
+        <v>-5299.53991665725</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0000307779928456359</v>
+        <v>66.3812830232177</v>
       </c>
       <c r="H110" t="n">
-        <v>0.000646011461791</v>
+        <v>0.0000307779928456374</v>
       </c>
       <c r="I110" t="n">
-        <v>0.00000000000290513650117243</v>
+        <v>0.00064601146178991</v>
       </c>
       <c r="J110" t="n">
-        <v>-490.205693688655</v>
+        <v>0.00000000000290513650117088</v>
+      </c>
+      <c r="K110" t="n">
+        <v>-490.205693688282</v>
       </c>
     </row>
   </sheetData>
@@ -6446,12 +6778,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -6489,138 +6821,155 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>866990.98761472</v>
+        <v>555289.732640101</v>
       </c>
       <c r="C3" t="n">
-        <v>159.230910676521</v>
+        <v>101.984093353572</v>
       </c>
       <c r="D3" t="n">
-        <v>850318.084006745</v>
+        <v>534372.152645639</v>
       </c>
       <c r="E3" t="n">
-        <v>156.547009830999</v>
+        <v>98.380081768278</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="n">
-        <v>-74.3724650328072</v>
+        <v>866990.987614577</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0136591908169803</v>
+        <v>159.230910676495</v>
       </c>
       <c r="D4" t="n">
-        <v>996.869297881884</v>
+        <v>850318.084006604</v>
       </c>
       <c r="E4" t="n">
-        <v>0.183527683005856</v>
+        <v>156.547009830973</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="n">
-        <v>-293469.147751324</v>
+        <v>-74.3724650328057</v>
       </c>
       <c r="C5" t="n">
-        <v>-53.8983222656888</v>
+        <v>-0.01365919081698</v>
       </c>
       <c r="D5" t="n">
-        <v>-300123.965788624</v>
+        <v>996.86929788188</v>
       </c>
       <c r="E5" t="n">
-        <v>-55.2540399957641</v>
+        <v>0.183527683005855</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" t="n">
-        <v>3558.79957222704</v>
+        <v>-293469.147751372</v>
       </c>
       <c r="C6" t="n">
-        <v>0.653606444468311</v>
+        <v>-53.8983222656976</v>
       </c>
       <c r="D6" t="n">
-        <v>3206.54257004572</v>
+        <v>-300123.965788672</v>
       </c>
       <c r="E6" t="n">
-        <v>0.59033749919928</v>
+        <v>-55.254039995773</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="n">
-        <v>6016.90476618238</v>
+        <v>3558.7995722284</v>
       </c>
       <c r="C7" t="n">
-        <v>1.10506018985157</v>
+        <v>0.653606444468562</v>
       </c>
       <c r="D7" t="n">
-        <v>7509.06323257127</v>
+        <v>3206.54257004695</v>
       </c>
       <c r="E7" t="n">
-        <v>1.38244901267042</v>
+        <v>0.590337499199506</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" t="n">
-        <v>293.190934728931</v>
+        <v>6016.90476618266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0538472258718963</v>
+        <v>1.10506018985162</v>
       </c>
       <c r="D8" t="n">
-        <v>277.65927296838</v>
+        <v>7509.06323257162</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0511181988865055</v>
+        <v>1.38244901267049</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="n">
-        <v>1032.61051636135</v>
+        <v>293.190934728436</v>
       </c>
       <c r="C9" t="n">
-        <v>0.189648468373051</v>
+        <v>0.0538472258718054</v>
       </c>
       <c r="D9" t="n">
-        <v>783.441013415541</v>
+        <v>277.659272967911</v>
       </c>
       <c r="E9" t="n">
-        <v>0.144234669750006</v>
+        <v>0.0511181988864192</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1032.6105163608</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.18964846837295</v>
+      </c>
+      <c r="D10" t="n">
+        <v>783.441013415122</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.144234669749929</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>66</v>
       </c>
-      <c r="B10" t="n">
-        <v>-29059.240547593</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-5.33699819497729</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-28595.5409591982</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-5.26455513043849</v>
+      <c r="B11" t="n">
+        <v>-29059.2405475709</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-5.33699819497322</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-28595.5409591764</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-5.26455513043448</v>
       </c>
     </row>
   </sheetData>
